--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_collab\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3AD369-6503-42FA-899A-04BC8A7FB590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +24,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
   <si>
-    <t>First Set</t>
+    <t>FIRST SET</t>
+  </si>
+  <si>
+    <t>FOLLOW SET</t>
+  </si>
+  <si>
+    <t>CFG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +50,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,14 +79,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -347,24 +384,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_collab\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD17AA9-6CD5-494E-B243-35C70D614AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="9360"/>
+    <workbookView xWindow="15585" yWindow="2670" windowWidth="18000" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -36,12 +37,47 @@
   </si>
   <si>
     <t>CFG</t>
+  </si>
+  <si>
+    <t>&lt;PACKAGE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ST1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IMPORTS&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ST_BODY&gt; </t>
+  </si>
+  <si>
+    <t>&lt;ST_BODY2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;BODY&gt;</t>
+  </si>
+  <si>
+    <t>; ?  &lt;SST&gt; ? {</t>
+  </si>
+  <si>
+    <t>&lt;FN_DEC&gt;,&lt;GLOBAL_CLASS&gt;,
+&lt;GLOBAL_DEC&gt;,null</t>
+  </si>
+  <si>
+    <t>&lt;MAIN&gt;,&lt;FN_DEC&gt;,&lt;GLOBAL_CLASS&gt;,
+&lt;GLOBAL_DEC&gt;,null</t>
+  </si>
+  <si>
+    <t>&lt;SST&gt;</t>
+  </si>
+  <si>
+    <t>&lt;MST&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,10 +135,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -384,22 +423,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -410,9 +449,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_collab\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD17AA9-6CD5-494E-B243-35C70D614AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15585" yWindow="2670" windowWidth="18000" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15585" yWindow="2670" windowWidth="18000" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -60,25 +59,282 @@
     <t>; ?  &lt;SST&gt; ? {</t>
   </si>
   <si>
-    <t>&lt;FN_DEC&gt;,&lt;GLOBAL_CLASS&gt;,
-&lt;GLOBAL_DEC&gt;,null</t>
-  </si>
-  <si>
-    <t>&lt;MAIN&gt;,&lt;FN_DEC&gt;,&lt;GLOBAL_CLASS&gt;,
-&lt;GLOBAL_DEC&gt;,null</t>
-  </si>
-  <si>
     <t>&lt;SST&gt;</t>
   </si>
   <si>
     <t>&lt;MST&gt;</t>
+  </si>
+  <si>
+    <t>&lt;MAIN&gt;</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>Start Structure</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>&lt;MAIN&gt;?&lt;FN_DEC&gt;?&lt;GLOBAL_CLASS&gt;?
+&lt;GLOBAL_DEC&gt;?null</t>
+  </si>
+  <si>
+    <t>&lt;FN_DEC&gt;?&lt;GLOBAL_CLASS&gt;?
+&lt;GLOBAL_DEC&gt;?null</t>
+  </si>
+  <si>
+    <t>Single and Multi Statements</t>
+  </si>
+  <si>
+    <t>Begin the Main Function</t>
+  </si>
+  <si>
+    <t>Package and Import</t>
+  </si>
+  <si>
+    <t>&lt;IMP_DOT&gt;</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>Reusable CFG</t>
+  </si>
+  <si>
+    <t>&lt;TYPE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DT_STR&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE_LIST&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ACCESS_METH&gt;</t>
+  </si>
+  <si>
+    <t>dot?;</t>
+  </si>
+  <si>
+    <t>&lt;SST&gt;?null</t>
+  </si>
+  <si>
+    <t>id?dt?str</t>
+  </si>
+  <si>
+    <t>dt?str</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>Access Modifier, Static and Abstract</t>
+  </si>
+  <si>
+    <t>&lt;ACCESSMOD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;STATIC&gt;</t>
+  </si>
+  <si>
+    <t>&lt;FINAL&gt;</t>
+  </si>
+  <si>
+    <t>parent?self</t>
+  </si>
+  <si>
+    <t>[?null</t>
+  </si>
+  <si>
+    <t>protected?private?null</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>const?null</t>
+  </si>
+  <si>
+    <t>Function Statement in Start</t>
+  </si>
+  <si>
+    <t>&lt;FN_DEC&gt;</t>
+  </si>
+  <si>
+    <t>&lt;FN_ST&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;PAR&gt; </t>
+  </si>
+  <si>
+    <t>&lt;PAR_LIST&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DT_ID&gt; </t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>&lt;RET_TYPE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RT_OBJ&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE&gt;? id? null</t>
+  </si>
+  <si>
+    <t>&lt;DT_STR&gt; ? Id</t>
+  </si>
+  <si>
+    <t>&lt;DT_ID&gt;  ? )</t>
+  </si>
+  <si>
+    <t>, ? )</t>
+  </si>
+  <si>
+    <t>Function Statement in class</t>
+  </si>
+  <si>
+    <t>&lt;FN_CLASS_DEC&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IS_ABSTRACT&gt;</t>
+  </si>
+  <si>
+    <t>Abstract ?  &lt;FINAL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RET_TYPE_C&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ACCESSMOD_C&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DT_STR&gt; ? Id ? &lt;ACCESSMOD_C&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE&gt; ? &lt;ACCESSMOD_C&gt; ? 
+Id ? Null</t>
+  </si>
+  <si>
+    <t>private ? Protected</t>
+  </si>
+  <si>
+    <t>Class Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;GLOBAL_CLASS&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;CLASS_GLOBAL&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;CLASS_DEC&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NO_PRIVATE&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;CLASS_PAR&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;INHERIT&gt;      </t>
+  </si>
+  <si>
+    <t>&lt;MULTI_INHERIT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;CLASS_DEC&gt; ? Abstract ? const </t>
+  </si>
+  <si>
+    <t>&lt;CLASS_DEC&gt; ? &lt;VAR_OBJ_G&gt;</t>
+  </si>
+  <si>
+    <t> Class</t>
+  </si>
+  <si>
+    <t>protected ? null</t>
+  </si>
+  <si>
+    <t>&lt; ? null</t>
+  </si>
+  <si>
+    <t>id ?  )</t>
+  </si>
+  <si>
+    <t>Class Body</t>
+  </si>
+  <si>
+    <t>&lt;CLASS_BODY&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ATTR_FUNC&gt; </t>
+  </si>
+  <si>
+    <t>&lt;ATTR_FUNC&gt;? }</t>
+  </si>
+  <si>
+    <t>&lt;FN_CLASS_DEC&gt; ? &lt;ATTR_CLASS_DEC&gt;</t>
+  </si>
+  <si>
+    <t>End only with ID, array subscript.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;POS&gt;        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;SUBSCRIPT&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;FN_BRACKETS&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ARG&gt;        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ARG_LIST&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;EXPR_OBJ&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_ID&gt;     </t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID&gt; ? &lt;SUBSCRIPT&gt;  ? 
+&lt;FN_BRACKETS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EXPR_OBJ&gt; ? )</t>
+  </si>
+  <si>
+    <t>, &lt;EXPR_OBJ&gt; ? )</t>
+  </si>
+  <si>
+    <t>&lt;EXPR&gt; ? &lt;NEW_OBJ&gt;</t>
+  </si>
+  <si>
+    <t>dot ? null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +349,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +375,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -131,11 +407,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,8 +420,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -423,18 +709,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -449,6 +735,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
@@ -465,12 +756,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -478,7 +769,12 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -489,18 +785,391 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="186">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -328,6 +328,267 @@
   </si>
   <si>
     <t>dot ? null</t>
+  </si>
+  <si>
+    <t>End with ID and array subscript with posibility of pos increment decrement in the end, and function call ends with null.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;POS2&gt;       </t>
+  </si>
+  <si>
+    <t>&lt;INC_DEC_DOT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_ID2&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;INC_DEC_DOT&gt;? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
+  </si>
+  <si>
+    <t>&lt;INC_DEC&gt; ?  &lt;DOT_ID2&gt;</t>
+  </si>
+  <si>
+    <t>dot ? Null</t>
+  </si>
+  <si>
+    <t>Declaration and Initialization</t>
+  </si>
+  <si>
+    <t>Dot Separated Identifers, Function calls, array subscripts</t>
+  </si>
+  <si>
+    <t>Not in Class There is no access modifer nor static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DEC&gt;          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ASSIGN_OBJ&gt;   </t>
+  </si>
+  <si>
+    <t>&lt;ARR_SUBSCRIPT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;VAR_ARR&gt;      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;IS_INIT&gt;      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;INIT&gt;         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;IS_ACMETH&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;OPER_TO_EXPR&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ASSIGN_EXPR&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_EXPR&gt;     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_EXPR2&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ID_TO_EXPR&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;LIST&gt;         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ASSIGN_OP&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">const ? dt ? id ? &lt;ACCESS_METH&gt; </t>
+  </si>
+  <si>
+    <t>[ ? id ? &lt;ASSIGN&gt;</t>
+  </si>
+  <si>
+    <t>]? &lt;EXPR&gt; ? &lt;DOT_ID3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ARR_DEC&gt; ? Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=  ?  ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;IS_ACMETH&gt; ? &lt;NEW_OBJ&gt; ? 
+&lt;OPER_TO_EXPR&gt; ? &lt;FLAG&gt; </t>
+  </si>
+  <si>
+    <t>&lt;ACCESS_METH&gt; ? null</t>
+  </si>
+  <si>
+    <t>&lt;INC_DEC&gt;? (? &lt;UNARY&gt; ?
+&lt;CONST&gt; ? &lt;FLAG&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_EXPR&gt; ? &lt;SUBSCRIPT&gt; ?&lt;FN_BRACKETS&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot? &lt;ASSIGN_OP&gt;? &lt;INC_DEC&gt; ? 
+&lt;NEW_OBJ&gt; ? &lt;ID_TO_EXPR&gt; </t>
+  </si>
+  <si>
+    <t>dot ? &lt;ID_TO_EXPR&gt; ? null</t>
+  </si>
+  <si>
+    <t>&lt;J1&gt;</t>
+  </si>
+  <si>
+    <t>, ? ;</t>
+  </si>
+  <si>
+    <t>= ? cma</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>This CFG is called by &lt;DEC&gt; and it handles assignment and function call.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ASSIGN&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_ID3&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_ID4&gt;   </t>
+  </si>
+  <si>
+    <t>&lt;TWO_ASSIGN&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_ID3&gt; ? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
+  </si>
+  <si>
+    <t>dot ? &lt;TWO_ASSIGN&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;INC_DEC&gt;? &lt;ASSIGN_OP&gt; </t>
+  </si>
+  <si>
+    <t>Object Declaration</t>
+  </si>
+  <si>
+    <t>&lt;NEW_OBJ&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CONSTR_ARR&gt;</t>
+  </si>
+  <si>
+    <t>new? NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;FN_BRACKETS&gt; ? [ </t>
+  </si>
+  <si>
+    <t>Array Declaration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ARR_DEC&gt;      </t>
+  </si>
+  <si>
+    <t>&lt;ARR_CLASS_DEC&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ARR_INIT&gt;     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;IS_ARR_INIT&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;CHOICE&gt;       </t>
+  </si>
+  <si>
+    <t>&lt;NEW_ARR_CONST&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;REF_NEWARR&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;POSARR&gt;       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_ARR&gt;      </t>
+  </si>
+  <si>
+    <t>&lt;DOT_ARR_TRMIN&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;MORE_REF_STR&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DIM_PASS&gt;     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;MUL_ARR_DEC&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;EMP_ARR_DEC&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;LEN_OF_ARR&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ARR_CONST&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ARR_ELEMT&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;EXPR_LIST&gt;    </t>
+  </si>
+  <si>
+    <t> id</t>
+  </si>
+  <si>
+    <t>= ? ;</t>
+  </si>
+  <si>
+    <t>&lt;REF_NEWARR&gt; ? &lt;NEW_ARR_CONST&gt;</t>
+  </si>
+  <si>
+    <t>new? &lt;DIM_PASS&gt;</t>
+  </si>
+  <si>
+    <t>id ? &lt;NEW_ARR_CONST&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_ARR&gt;?&lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
+  </si>
+  <si>
+    <t>&lt;DOT_ARR&gt; ? ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">= ? ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;EXPR&gt; ? ] </t>
+  </si>
+  <si>
+    <t> [ ? ;</t>
+  </si>
+  <si>
+    <t>[ ? &lt;ARR_CONST&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;EXPR&gt;? &lt;ARR_CONST&gt; ? } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, ? } </t>
   </si>
 </sst>
 </file>
@@ -412,22 +673,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -710,462 +976,1042 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D74"/>
+  <dimension ref="B1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="B97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="304">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -531,15 +531,6 @@
     <t xml:space="preserve">&lt;DIM_PASS&gt;     </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;MUL_ARR_DEC&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;EMP_ARR_DEC&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;LEN_OF_ARR&gt;   </t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;ARR_CONST&gt;    </t>
   </si>
   <si>
@@ -576,9 +567,6 @@
     <t xml:space="preserve">&lt;EXPR&gt; ? ] </t>
   </si>
   <si>
-    <t> [ ? ;</t>
-  </si>
-  <si>
     <t>[ ? &lt;ARR_CONST&gt;</t>
   </si>
   <si>
@@ -589,13 +577,381 @@
   </si>
   <si>
     <t xml:space="preserve">, ? } </t>
+  </si>
+  <si>
+    <t>&lt;MUL_ARR_DEC2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EMP_ARR_DEC2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;MUL_ARR_DEC&gt;</t>
+  </si>
+  <si>
+    <t>&lt;LEN_OF_ARR&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EMP_ARR_DEC&gt;</t>
+  </si>
+  <si>
+    <t>&lt;LEN_OF_ARR2&gt;</t>
+  </si>
+  <si>
+    <t>[ ? ;</t>
+  </si>
+  <si>
+    <t>&lt;EXPR&gt;? ]</t>
+  </si>
+  <si>
+    <t>[? ;</t>
+  </si>
+  <si>
+    <t>Global Variable Declaration</t>
+  </si>
+  <si>
+    <t>&lt;GLOBAL_DEC&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IS_FINAL_G&gt;</t>
+  </si>
+  <si>
+    <t>&lt;VAR_OBJ_G&gt;</t>
+  </si>
+  <si>
+    <t>&lt;VAR_ARR_G&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IS_INIT_G&gt;</t>
+  </si>
+  <si>
+    <t>&lt;LIST_G&gt;</t>
+  </si>
+  <si>
+    <t>const ? dt ? Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;TYPE&gt; </t>
+  </si>
+  <si>
+    <t>&lt;ARR_CLASS_DEC&gt; ? id &lt;IS_INIT_G&gt;</t>
+  </si>
+  <si>
+    <t>= &lt;INIT&gt; ? ;</t>
+  </si>
+  <si>
+    <t>, ?  ;</t>
+  </si>
+  <si>
+    <t>Attribute Declaration in class</t>
+  </si>
+  <si>
+    <t>&lt;ATTR_CLASS_DEC&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IS_FINAL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;VAR_OBJ_C&gt;</t>
+  </si>
+  <si>
+    <t>&lt;VAR_ARR_C&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IS_INIT_C&gt;</t>
+  </si>
+  <si>
+    <t>&lt;LIST_C&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const ? dt ? id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ARR_CLASS_DEC&gt; ? &lt;ACCESSMOD&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, ? ; </t>
+  </si>
+  <si>
+    <t>Expression(Right Recursive)</t>
+  </si>
+  <si>
+    <t>&lt;EXPR&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EXPR1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;F&gt;</t>
+  </si>
+  <si>
+    <t>&lt;F1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;G&gt;</t>
+  </si>
+  <si>
+    <t>&lt;G1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;H&gt;</t>
+  </si>
+  <si>
+    <t>&lt;H1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;I&gt;</t>
+  </si>
+  <si>
+    <t>&lt;I1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;J&gt;</t>
+  </si>
+  <si>
+    <t>&lt;K&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IS_FLAG&gt;</t>
+  </si>
+  <si>
+    <t>or ? null</t>
+  </si>
+  <si>
+    <t>and ? null</t>
+  </si>
+  <si>
+    <t>rop ?  null</t>
+  </si>
+  <si>
+    <t> pm ? null  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;J&gt; </t>
+  </si>
+  <si>
+    <t>mdm ? null</t>
+  </si>
+  <si>
+    <t>power ? null</t>
+  </si>
+  <si>
+    <t>&lt;FLAG&gt; ? &lt;OPERANDS&gt;</t>
+  </si>
+  <si>
+    <t>Operands</t>
+  </si>
+  <si>
+    <t>&lt;OPERAND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UNARY&gt;</t>
+  </si>
+  <si>
+    <t>&lt;FLAG&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IS_ACMETH&gt;? &lt;INC_DEC&gt; ? ( ? &lt;UNARY&gt;
+? &lt;CONST&gt;</t>
+  </si>
+  <si>
+    <t>typeCast ? not</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>Increment Decrement</t>
+  </si>
+  <si>
+    <t>&lt;CONST&gt;</t>
+  </si>
+  <si>
+    <t>intConst ? floatConst ? charConst ? 
+boolConst ? strConst</t>
+  </si>
+  <si>
+    <t>Conditional Statements</t>
+  </si>
+  <si>
+    <t>&lt;IF_ELSE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;OELSE&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>else ? null</t>
+  </si>
+  <si>
+    <t>if-else</t>
+  </si>
+  <si>
+    <t>switch-case</t>
+  </si>
+  <si>
+    <t>&lt;SWITCH&gt;</t>
+  </si>
+  <si>
+    <t>&lt;STATE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DEFAULT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TWO_MST&gt;</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>state ? &lt;DEFAULT&gt; ? }</t>
+  </si>
+  <si>
+    <t>&lt;MST&gt; ? {</t>
+  </si>
+  <si>
+    <t>Loop Statements</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>While/do-while loop</t>
+  </si>
+  <si>
+    <t>&lt;LOOP&gt;</t>
+  </si>
+  <si>
+    <t>&lt;LT&gt;</t>
+  </si>
+  <si>
+    <t> loop</t>
+  </si>
+  <si>
+    <t>&lt;WHILE_ST&gt; ? &lt;FOR_ST&gt;</t>
+  </si>
+  <si>
+    <t>&lt;WHILE_ST&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DO_WHILE&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">till </t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>For-loop</t>
+  </si>
+  <si>
+    <t>&lt;FOR_ST&gt;</t>
+  </si>
+  <si>
+    <t>&lt;FOR_ARG&gt;</t>
+  </si>
+  <si>
+    <t>&lt;POS3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID5&gt;</t>
+  </si>
+  <si>
+    <t>thru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id? ( </t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID5&gt; ? &lt;SUBSCRIPT&gt;? &lt;FN_BRACKETS&gt;</t>
+  </si>
+  <si>
+    <t> dot ? null</t>
+  </si>
+  <si>
+    <t>Jump Statements</t>
+  </si>
+  <si>
+    <t>Break-continue</t>
+  </si>
+  <si>
+    <t>Return-statement</t>
+  </si>
+  <si>
+    <t>&lt;BREAK&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CONTINUE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;L&gt;</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t> cont</t>
+  </si>
+  <si>
+    <t>id ? ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;RET_ST&gt; </t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>Throw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;THROW&gt; </t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>Exception Handler</t>
+  </si>
+  <si>
+    <t>&lt;TRY_CATCH&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ERROR_TYPE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ERR_DOT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;THROWS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;FINALLY&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test </t>
+  </si>
+  <si>
+    <t>dot ? id</t>
+  </si>
+  <si>
+    <t>raises ? null</t>
+  </si>
+  <si>
+    <t>finally ? null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,15 +974,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE1EFFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +1017,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -668,12 +1055,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -684,9 +1073,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -694,8 +1080,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
+    <cellStyle name="Accent3" xfId="3" builtinId="37"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,18 +1382,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D128"/>
+  <dimension ref="B1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1408,7 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2"/>
@@ -1055,7 +1461,7 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2"/>
@@ -1076,14 +1482,14 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1104,7 +1510,7 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2"/>
@@ -1125,7 +1531,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2"/>
@@ -1164,7 +1570,7 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="2"/>
@@ -1221,7 +1627,7 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="2"/>
@@ -1260,7 +1666,7 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="2"/>
@@ -1340,7 +1746,7 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="2"/>
@@ -1402,7 +1808,7 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="2"/>
@@ -1477,7 +1883,7 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="2"/>
@@ -1507,14 +1913,14 @@
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C68" s="2"/>
@@ -1589,7 +1995,7 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C77" s="2"/>
@@ -1628,14 +2034,14 @@
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="14" t="s">
         <v>107</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C83" s="2"/>
@@ -1672,7 +2078,7 @@
       <c r="B87" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" t="s">
         <v>127</v>
       </c>
       <c r="D87" s="2"/>
@@ -1681,7 +2087,7 @@
       <c r="B88" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D88" s="2"/>
@@ -1762,7 +2168,7 @@
       <c r="B97" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D97" s="2"/>
@@ -1773,14 +2179,14 @@
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="14" t="s">
         <v>138</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C100" s="2"/>
@@ -1828,7 +2234,7 @@
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="14" t="s">
         <v>148</v>
       </c>
       <c r="C106" s="2"/>
@@ -1858,7 +2264,7 @@
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="14" t="s">
         <v>153</v>
       </c>
       <c r="C110" s="2"/>
@@ -1887,7 +2293,7 @@
         <v>156</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -1895,8 +2301,8 @@
       <c r="B114" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>173</v>
+      <c r="C114" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -1905,7 +2311,7 @@
         <v>158</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -1914,7 +2320,7 @@
         <v>159</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -1923,7 +2329,7 @@
         <v>160</v>
       </c>
       <c r="C117" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
@@ -1931,7 +2337,7 @@
         <v>161</v>
       </c>
       <c r="C118" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
@@ -1947,15 +2353,15 @@
         <v>163</v>
       </c>
       <c r="C120" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>164</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>179</v>
+      <c r="C121" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
@@ -1963,55 +2369,602 @@
         <v>165</v>
       </c>
       <c r="C122" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>166</v>
-      </c>
-      <c r="C123" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C124" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C125" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C126" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C127" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>185</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>166</v>
+      </c>
+      <c r="C132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>168</v>
+      </c>
+      <c r="C134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>192</v>
+      </c>
+      <c r="C137" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>193</v>
+      </c>
+      <c r="C138" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>194</v>
+      </c>
+      <c r="C139" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>195</v>
+      </c>
+      <c r="C140" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>196</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>204</v>
+      </c>
+      <c r="C145" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>205</v>
+      </c>
+      <c r="C146" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>206</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>207</v>
+      </c>
+      <c r="C148" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>208</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>209</v>
+      </c>
+      <c r="C150" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>214</v>
+      </c>
+      <c r="C153" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>215</v>
+      </c>
+      <c r="C154" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>216</v>
+      </c>
+      <c r="C155" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>217</v>
+      </c>
+      <c r="C156" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>218</v>
+      </c>
+      <c r="C157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>220</v>
+      </c>
+      <c r="C159" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>221</v>
+      </c>
+      <c r="C160" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>222</v>
+      </c>
+      <c r="C161" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>223</v>
+      </c>
+      <c r="C162" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>224</v>
+      </c>
+      <c r="C163" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>135</v>
+      </c>
+      <c r="C164" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>225</v>
+      </c>
+      <c r="C165" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>226</v>
+      </c>
+      <c r="C166" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B169" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>237</v>
+      </c>
+      <c r="C170" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>238</v>
+      </c>
+      <c r="C171" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>246</v>
+      </c>
+      <c r="C178" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>247</v>
+      </c>
+      <c r="C179" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>252</v>
+      </c>
+      <c r="C182" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>253</v>
+      </c>
+      <c r="C183" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>254</v>
+      </c>
+      <c r="C184" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>255</v>
+      </c>
+      <c r="C185" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>263</v>
+      </c>
+      <c r="C190" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>264</v>
+      </c>
+      <c r="C191" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>267</v>
+      </c>
+      <c r="C194" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>268</v>
+      </c>
+      <c r="C195" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>272</v>
+      </c>
+      <c r="C198" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>273</v>
+      </c>
+      <c r="C199" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>274</v>
+      </c>
+      <c r="C200" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>275</v>
+      </c>
+      <c r="C201" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="8"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>283</v>
+      </c>
+      <c r="C206" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>284</v>
+      </c>
+      <c r="C207" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>285</v>
+      </c>
+      <c r="C208" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>289</v>
+      </c>
+      <c r="C211" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>292</v>
+      </c>
+      <c r="C214" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>295</v>
+      </c>
+      <c r="C217" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>296</v>
+      </c>
+      <c r="C218" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>297</v>
+      </c>
+      <c r="C219" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>298</v>
+      </c>
+      <c r="C220" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>299</v>
+      </c>
+      <c r="C221" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="318">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -32,9 +32,6 @@
     <t>FIRST SET</t>
   </si>
   <si>
-    <t>FOLLOW SET</t>
-  </si>
-  <si>
     <t>CFG</t>
   </si>
   <si>
@@ -77,14 +74,6 @@
     <t>Body</t>
   </si>
   <si>
-    <t>&lt;MAIN&gt;?&lt;FN_DEC&gt;?&lt;GLOBAL_CLASS&gt;?
-&lt;GLOBAL_DEC&gt;?null</t>
-  </si>
-  <si>
-    <t>&lt;FN_DEC&gt;?&lt;GLOBAL_CLASS&gt;?
-&lt;GLOBAL_DEC&gt;?null</t>
-  </si>
-  <si>
     <t>Single and Multi Statements</t>
   </si>
   <si>
@@ -127,12 +116,6 @@
     <t>&lt;SST&gt;?null</t>
   </si>
   <si>
-    <t>id?dt?str</t>
-  </si>
-  <si>
-    <t>dt?str</t>
-  </si>
-  <si>
     <t>[</t>
   </si>
   <si>
@@ -148,12 +131,6 @@
     <t>&lt;FINAL&gt;</t>
   </si>
   <si>
-    <t>parent?self</t>
-  </si>
-  <si>
-    <t>[?null</t>
-  </si>
-  <si>
     <t>protected?private?null</t>
   </si>
   <si>
@@ -193,9 +170,6 @@
     <t>&lt;RT_OBJ&gt;</t>
   </si>
   <si>
-    <t>&lt;ARR_TYPE&gt;? id? null</t>
-  </si>
-  <si>
     <t>&lt;DT_STR&gt; ? Id</t>
   </si>
   <si>
@@ -212,9 +186,6 @@
   </si>
   <si>
     <t>&lt;IS_ABSTRACT&gt;</t>
-  </si>
-  <si>
-    <t>Abstract ?  &lt;FINAL&gt;</t>
   </si>
   <si>
     <t>&lt;RET_TYPE_C&gt;</t>
@@ -263,9 +234,6 @@
     <t>&lt;CLASS_DEC&gt; ? &lt;VAR_OBJ_G&gt;</t>
   </si>
   <si>
-    <t> Class</t>
-  </si>
-  <si>
     <t>protected ? null</t>
   </si>
   <si>
@@ -330,9 +298,6 @@
     <t>dot ? null</t>
   </si>
   <si>
-    <t>End with ID and array subscript with posibility of pos increment decrement in the end, and function call ends with null.</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;POS2&gt;       </t>
   </si>
   <si>
@@ -945,6 +910,86 @@
   </si>
   <si>
     <t>finally ? null</t>
+  </si>
+  <si>
+    <t>End with ID and array subscript with posibility of pos 
+increment decrement in the end, and function call ends with null.</t>
+  </si>
+  <si>
+    <t>FIRST SET (substituting NN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;PACKAGE&gt; </t>
+  </si>
+  <si>
+    <t>Begin?  def ? Class ? Const? null</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>def ? Class ? Const ? Null</t>
+  </si>
+  <si>
+    <t>&lt;FN_DEC&gt; ? &lt;GLOBAL_CLASS&gt; ?
+&lt;GLOBAL_DEC&gt; ? null</t>
+  </si>
+  <si>
+    <t>&lt;MAIN&gt; ? &lt;FN_DEC&gt; ? &lt;GLOBAL_CLASS&gt; ?
+&lt;GLOBAL_DEC&gt; ? null</t>
+  </si>
+  <si>
+    <t>&lt;IF_ELSE&gt;?&lt;SWITCH&gt;? &lt;DEC&gt;?&lt;TRY_CATCH&gt;? 
+&lt;LOOP&gt;?&lt;DO_WHILE&gt;?&lt;BREAK&gt;?&lt;RET_ST&gt;?
+ &lt;CONTINUE&gt;?&lt;THROW&gt;</t>
+  </si>
+  <si>
+    <t>[ ? null</t>
+  </si>
+  <si>
+    <t>parent ? self</t>
+  </si>
+  <si>
+    <t>id ? dt ? str</t>
+  </si>
+  <si>
+    <t>dt ? str</t>
+  </si>
+  <si>
+    <t>id? dt ? Str</t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE&gt;? id? Null</t>
+  </si>
+  <si>
+    <t>[ ? Id ?null</t>
+  </si>
+  <si>
+    <t>Abstract ? const ? null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract ?  &lt;FINAL&gt; </t>
+  </si>
+  <si>
+    <t>dt ? str ? Id</t>
+  </si>
+  <si>
+    <t>dt ? str ? Id ? private ? Protected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ ? private ? Protected ? id ? null </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Class ? Abstract ? const </t>
+  </si>
+  <si>
+    <t> Class ? id ? dt ? str</t>
+  </si>
+  <si>
+    <t>def ? Static</t>
+  </si>
+  <si>
+    <t>def ? Static ? }</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1047,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,8 +1075,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1054,19 +1104,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1098,13 +1161,31 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1384,1587 +1465,1617 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="D41" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C87" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="C112" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="C113" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="C114" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="14" t="s">
+      <c r="C115" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D116" s="2"/>
+      <c r="C116" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" s="1"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>160</v>
-      </c>
-      <c r="C117" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>161</v>
-      </c>
-      <c r="C118" t="s">
-        <v>174</v>
+        <v>150</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C119" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>163</v>
-      </c>
-      <c r="C120" t="s">
-        <v>175</v>
+        <v>152</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>164</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>176</v>
+        <v>153</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>165</v>
-      </c>
-      <c r="C122" t="s">
-        <v>177</v>
+        <v>154</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>185</v>
-      </c>
-      <c r="C125" t="s">
-        <v>189</v>
+        <v>174</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>186</v>
-      </c>
-      <c r="C126" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>187</v>
-      </c>
-      <c r="C128" t="s">
-        <v>189</v>
+        <v>176</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C129" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C132" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>167</v>
-      </c>
-      <c r="C133" t="s">
-        <v>180</v>
+        <v>156</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="7"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="11" t="s">
-        <v>191</v>
+      <c r="B136" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>192</v>
-      </c>
-      <c r="C137" t="s">
-        <v>193</v>
+        <v>181</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C138" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>194</v>
-      </c>
-      <c r="C139" t="s">
-        <v>199</v>
+        <v>183</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>195</v>
-      </c>
-      <c r="C140" t="s">
-        <v>200</v>
+        <v>184</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>196</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>201</v>
+        <v>185</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C142" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="11" t="s">
-        <v>203</v>
+      <c r="B144" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>204</v>
-      </c>
-      <c r="C145" t="s">
-        <v>38</v>
+        <v>193</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C146" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>206</v>
-      </c>
-      <c r="C147" t="s">
-        <v>26</v>
+        <v>195</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>207</v>
-      </c>
-      <c r="C148" t="s">
-        <v>211</v>
+        <v>196</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>208</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>170</v>
+        <v>197</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C150" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="11" t="s">
-        <v>213</v>
+      <c r="B152" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>214</v>
-      </c>
-      <c r="C153" t="s">
-        <v>216</v>
+        <v>203</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C154" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>216</v>
-      </c>
-      <c r="C155" t="s">
-        <v>218</v>
+        <v>205</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
+        <v>206</v>
+      </c>
+      <c r="C156" t="s">
         <v>217</v>
-      </c>
-      <c r="C156" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>218</v>
-      </c>
-      <c r="C157" t="s">
-        <v>220</v>
+        <v>207</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C158" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>220</v>
-      </c>
-      <c r="C159" t="s">
-        <v>222</v>
+        <v>209</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C160" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>222</v>
-      </c>
-      <c r="C161" t="s">
-        <v>231</v>
+        <v>211</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C162" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>224</v>
-      </c>
-      <c r="C163" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C164" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>225</v>
-      </c>
-      <c r="C165" t="s">
-        <v>226</v>
+        <v>214</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>226</v>
-      </c>
-      <c r="C166" t="s">
-        <v>234</v>
+        <v>215</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="11" t="s">
-        <v>235</v>
+      <c r="B168" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B169" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>239</v>
+      <c r="B169" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C170" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C171" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="11" t="s">
-        <v>242</v>
+      <c r="B173" s="10" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B174" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>244</v>
+      <c r="B174" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="11" t="s">
-        <v>245</v>
+      <c r="B176" s="10" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="13" t="s">
-        <v>250</v>
+      <c r="B177" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C178" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C179" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="13" t="s">
-        <v>251</v>
+      <c r="B181" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C182" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>253</v>
-      </c>
-      <c r="C183" t="s">
-        <v>258</v>
+        <v>242</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C184" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>255</v>
-      </c>
-      <c r="C185" t="s">
-        <v>259</v>
+        <v>244</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="11" t="s">
-        <v>260</v>
+      <c r="B187" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="13" t="s">
-        <v>261</v>
+      <c r="B189" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C190" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>264</v>
-      </c>
-      <c r="C191" t="s">
-        <v>266</v>
+        <v>253</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="13" t="s">
-        <v>262</v>
+      <c r="B193" s="12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C194" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C195" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="13" t="s">
-        <v>271</v>
+      <c r="B197" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C198" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C199" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>274</v>
-      </c>
-      <c r="C200" t="s">
-        <v>278</v>
+        <v>263</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C201" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="11" t="s">
-        <v>280</v>
+      <c r="B203" s="10" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="8"/>
+      <c r="B204" s="7"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="13" t="s">
-        <v>281</v>
+      <c r="B205" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C206" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C207" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C208" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="13" t="s">
-        <v>282</v>
+      <c r="B210" s="12" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C211" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="11" t="s">
-        <v>291</v>
+      <c r="B213" s="10" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C214" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="11" t="s">
-        <v>294</v>
+      <c r="B216" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C217" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C218" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C219" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C220" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C221" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="326">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -125,19 +125,7 @@
     <t>&lt;ACCESSMOD&gt;</t>
   </si>
   <si>
-    <t>&lt;STATIC&gt;</t>
-  </si>
-  <si>
-    <t>&lt;FINAL&gt;</t>
-  </si>
-  <si>
     <t>protected?private?null</t>
-  </si>
-  <si>
-    <t>Static</t>
-  </si>
-  <si>
-    <t>const?null</t>
   </si>
   <si>
     <t>Function Statement in Start</t>
@@ -950,9 +938,6 @@
     <t>parent ? self</t>
   </si>
   <si>
-    <t>id ? dt ? str</t>
-  </si>
-  <si>
     <t>dt ? str</t>
   </si>
   <si>
@@ -965,12 +950,6 @@
     <t>[ ? Id ?null</t>
   </si>
   <si>
-    <t>Abstract ? const ? null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract ?  &lt;FINAL&gt; </t>
-  </si>
-  <si>
     <t>dt ? str ? Id</t>
   </si>
   <si>
@@ -983,20 +962,65 @@
     <t xml:space="preserve"> Class ? Abstract ? const </t>
   </si>
   <si>
-    <t> Class ? id ? dt ? str</t>
-  </si>
-  <si>
-    <t>def ? Static</t>
-  </si>
-  <si>
-    <t>def ? Static ? }</t>
+    <t>&lt;SUBSCRIPT_LIST&gt;</t>
+  </si>
+  <si>
+    <t>[ ? Null</t>
+  </si>
+  <si>
+    <t>Abstract ?  const ? &lt;WITH_STATIC&gt;</t>
+  </si>
+  <si>
+    <t>Abstract ? const ? Static</t>
+  </si>
+  <si>
+    <t>&lt;RET_TO_THROW&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;WITH_STATIC&gt; </t>
+  </si>
+  <si>
+    <t>Static? &lt;RET_TO_THROW&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RET_OBJ_C&gt;</t>
+  </si>
+  <si>
+    <t>Static?dt ? str ? Id ? private ? Protected</t>
+  </si>
+  <si>
+    <t>Static ? &lt;IS_FINAL&gt;</t>
+  </si>
+  <si>
+    <t>def ?  Static ? const ? dt ? id  ? }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def ? Static ? const ? dt ? id </t>
+  </si>
+  <si>
+    <t>id ? dt ? Str</t>
+  </si>
+  <si>
+    <t> Class ? id? dt ? Str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static ? const ? dt ? id </t>
+  </si>
+  <si>
+    <t>dot ? Null ? [ ? (</t>
+  </si>
+  <si>
+    <t>&lt;F&gt; ? )</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,8 +1070,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,6 +1104,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1120,15 +1156,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1167,25 +1204,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="5" builtinId="10"/>
+    <cellStyle name="Note" xfId="6" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1463,16 +1505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D221"/>
+  <dimension ref="B1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
@@ -1485,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -1500,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -1522,10 +1564,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -1533,10 +1575,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1582,7 +1624,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1672,7 +1714,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -1681,7 +1723,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1699,7 +1741,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -1708,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -1729,26 +1771,18 @@
         <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -1758,56 +1792,56 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -1817,24 +1851,24 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -1844,1238 +1878,1273 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>310</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="B55" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>317</v>
-      </c>
+      <c r="B64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>85</v>
-      </c>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>86</v>
+        <v>308</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>113</v>
-      </c>
+      <c r="B84" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>114</v>
-      </c>
+      <c r="B85" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>116</v>
+        <v>96</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>118</v>
+        <v>98</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>123</v>
+        <v>103</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>124</v>
+        <v>104</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="11" t="s">
-        <v>128</v>
-      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>133</v>
-      </c>
+      <c r="B101" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>134</v>
-      </c>
+      <c r="B102" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="13" t="s">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>159</v>
+        <v>140</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>160</v>
+        <v>141</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>161</v>
+        <v>142</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>149</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>162</v>
-      </c>
+      <c r="B117" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D117" s="1"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>150</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>163</v>
-      </c>
+      <c r="B118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118" s="1"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>151</v>
-      </c>
-      <c r="C119" t="s">
-        <v>89</v>
+        <v>145</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>153</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
+      </c>
+      <c r="C121" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>173</v>
-      </c>
-      <c r="C124" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>174</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>178</v>
+        <v>150</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>175</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="C126" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>171</v>
-      </c>
-      <c r="C127" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
+        <v>167</v>
+      </c>
+      <c r="C129" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>172</v>
       </c>
-      <c r="C129" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>155</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="C130" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>156</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>169</v>
+      <c r="C131" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C134" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="6"/>
+      <c r="B135" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="10" t="s">
-        <v>180</v>
+      <c r="B136" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>181</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>182</v>
-      </c>
+      <c r="B137" s="6"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>182</v>
-      </c>
-      <c r="C138" t="s">
-        <v>187</v>
+      <c r="B138" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>184</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>189</v>
+        <v>178</v>
+      </c>
+      <c r="C140" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>185</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>182</v>
+      </c>
+      <c r="C144" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>189</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>190</v>
+      </c>
+      <c r="C148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="10" t="s">
+      <c r="C149" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="C150" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>193</v>
       </c>
-      <c r="C145" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="C151" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>194</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>195</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>196</v>
-      </c>
-      <c r="C148" s="18" t="s">
+      <c r="C155" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>197</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>198</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="C156" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="10" t="s">
+      <c r="C157" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+      <c r="C158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>203</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C159" s="18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>204</v>
       </c>
-      <c r="C154" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>205</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>206</v>
-      </c>
-      <c r="C156" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>207</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>208</v>
-      </c>
-      <c r="C158" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>209</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>210</v>
-      </c>
       <c r="C160" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C162" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="C164" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>215</v>
-      </c>
-      <c r="C166" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>211</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B171" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>222</v>
+      </c>
+      <c r="C172" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B169" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C169" s="20" t="s">
+      <c r="C173" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>226</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="C176" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>227</v>
-      </c>
-      <c r="C171" t="s">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="10" t="s">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="174" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B174" s="1" t="s">
+      <c r="C180" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>232</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="10" t="s">
+      <c r="C181" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>235</v>
-      </c>
-      <c r="C178" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="C179" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>241</v>
-      </c>
-      <c r="C182" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>242</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C184" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
+        <v>238</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>239</v>
+      </c>
+      <c r="C186" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>240</v>
+      </c>
+      <c r="C187" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C185" s="18" t="s">
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="10" t="s">
+      <c r="C192" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+      <c r="C193" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
         <v>252</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C196" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
         <v>253</v>
       </c>
-      <c r="C191" s="18" t="s">
+      <c r="C197" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="C194" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>257</v>
-      </c>
-      <c r="C195" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>261</v>
-      </c>
-      <c r="C198" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>262</v>
-      </c>
-      <c r="C199" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>263</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>267</v>
+        <v>257</v>
+      </c>
+      <c r="C200" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
+        <v>258</v>
+      </c>
+      <c r="C201" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>259</v>
+      </c>
+      <c r="C202" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>260</v>
+      </c>
+      <c r="C203" t="s">
         <v>264</v>
       </c>
-      <c r="C201" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="7"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="12" t="s">
-        <v>270</v>
+      <c r="B205" s="10" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>272</v>
-      </c>
-      <c r="C206" t="s">
-        <v>275</v>
-      </c>
+      <c r="B206" s="7"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>273</v>
-      </c>
-      <c r="C207" t="s">
-        <v>276</v>
+      <c r="B207" s="12" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
+        <v>268</v>
+      </c>
+      <c r="C208" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>269</v>
+      </c>
+      <c r="C209" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>270</v>
+      </c>
+      <c r="C210" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>274</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C213" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+      <c r="C216" t="s">
         <v>278</v>
       </c>
-      <c r="C211" t="s">
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="10" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>281</v>
-      </c>
-      <c r="C214" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
-        <v>284</v>
-      </c>
-      <c r="C217" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>285</v>
-      </c>
-      <c r="C218" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C219" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C220" t="s">
-        <v>291</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
+        <v>282</v>
+      </c>
+      <c r="C221" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>283</v>
+      </c>
+      <c r="C222" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>284</v>
+      </c>
+      <c r="C223" t="s">
         <v>288</v>
-      </c>
-      <c r="C221" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="341">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -277,9 +277,6 @@
     <t>&lt;EXPR_OBJ&gt; ? )</t>
   </si>
   <si>
-    <t>, &lt;EXPR_OBJ&gt; ? )</t>
-  </si>
-  <si>
     <t>&lt;EXPR&gt; ? &lt;NEW_OBJ&gt;</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
   </si>
   <si>
     <t>pm</t>
-  </si>
-  <si>
-    <t>Increment Decrement</t>
   </si>
   <si>
     <t>&lt;CONST&gt;</t>
@@ -1010,17 +1004,73 @@
     <t>dot ? Null ? [ ? (</t>
   </si>
   <si>
-    <t>&lt;F&gt; ? )</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>parent ? Self ? Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;INC_DEC&gt; </t>
+  </si>
+  <si>
+    <t>++ ? --</t>
+  </si>
+  <si>
+    <t>Constants / Increment Decrement</t>
+  </si>
+  <si>
+    <t>parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst</t>
+  </si>
+  <si>
+    <t>pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst</t>
+  </si>
+  <si>
+    <t>pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ? )</t>
+  </si>
+  <si>
+    <t>pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ?  new ? NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">++ ? -- ? dot ? Null </t>
+  </si>
+  <si>
+    <t>++ ? -- ? dot ? Null ? [ ? (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const ? dt ? id ? Parent ? Self </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dot ? ++ ? --? = ? cma ? [ ? (</t>
+  </si>
+  <si>
+    <t>[ ? id ? dot ? ++ ? --? = ? cma ? [ ? (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dot ? ++ ? --? = ? cma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">++ ? --? = ? cma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">]? pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ?  dot ? ++ ? --? = ? cma </t>
+  </si>
+  <si>
+    <t>[  ? Id</t>
+  </si>
+  <si>
+    <t>state ? default ? }</t>
+  </si>
+  <si>
+    <t> dot ? Null ? [ ? (</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,15 +1120,8 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1104,11 +1147,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1156,17 +1194,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1204,30 +1244,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="6" builtinId="10"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1505,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D223"/>
+  <dimension ref="B1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="B184" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,1631 +1560,1693 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16" t="s">
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B79" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C114" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C114" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C118" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="2"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>145</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>146</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>148</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>160</v>
+        <v>147</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>149</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>161</v>
+        <v>148</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>150</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C126" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>170</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>174</v>
+        <v>169</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>171</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>163</v>
+        <v>170</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>172</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>152</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>165</v>
+        <v>151</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C136" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="6"/>
+      <c r="B137" s="7"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="10" t="s">
-        <v>176</v>
+      <c r="B138" s="11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C140" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>179</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>180</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>181</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="11" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="10" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>189</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>322</v>
+        <v>188</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>191</v>
-      </c>
-      <c r="C149" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C149" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>192</v>
-      </c>
-      <c r="C150" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>193</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>155</v>
+        <v>192</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C152" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="10" t="s">
+    <row r="155" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>199</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>201</v>
+      <c r="C155" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
+        <v>199</v>
+      </c>
+      <c r="C156" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>200</v>
       </c>
-      <c r="C156" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>201</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>203</v>
+      <c r="C157" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>202</v>
       </c>
-      <c r="C158" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>203</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>205</v>
+      <c r="C159" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>204</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>205</v>
-      </c>
-      <c r="C161" s="18" t="s">
+    <row r="163" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>206</v>
-      </c>
-      <c r="C162" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>207</v>
-      </c>
-      <c r="C163" s="18" t="s">
+      <c r="C164" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    <row r="165" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>208</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>119</v>
+      </c>
+      <c r="C166" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+    <row r="167" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C167" s="19" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>120</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="D167" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" s="19" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>210</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>211</v>
-      </c>
-      <c r="C168" s="18" t="s">
+      <c r="D168" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="10" t="s">
+    <row r="171" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B171" s="10" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="171" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B171" s="9" t="s">
+      <c r="C171" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>221</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C172" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>222</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>223</v>
-      </c>
-      <c r="C173" t="s">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B176" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="10" t="s">
+      <c r="C176" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B176" s="1" t="s">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C176" s="8" t="s">
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="10" t="s">
+      <c r="C181" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="12" t="s">
+      <c r="C182" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>231</v>
-      </c>
-      <c r="C180" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>232</v>
-      </c>
-      <c r="C181" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="12" t="s">
+      <c r="C185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+      <c r="C186" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D186" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
         <v>237</v>
       </c>
-      <c r="C184" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+      <c r="C187" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>238</v>
       </c>
-      <c r="C185" s="18" t="s">
+      <c r="C188" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D188" s="24"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>239</v>
-      </c>
-      <c r="C186" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>240</v>
-      </c>
-      <c r="C187" s="18" t="s">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="10" t="s">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>246</v>
+      </c>
+      <c r="C193" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>247</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>248</v>
-      </c>
-      <c r="C192" t="s">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>249</v>
-      </c>
-      <c r="C193" s="18" t="s">
+      <c r="C197" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>252</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="C198" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>253</v>
-      </c>
-      <c r="C197" t="s">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="12" t="s">
+      <c r="C201" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
+      <c r="C202" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>257</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C203" s="19" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+      <c r="D203" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>258</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C204" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>259</v>
-      </c>
-      <c r="C202" s="18" t="s">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>260</v>
-      </c>
-      <c r="C203" t="s">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="8"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="13" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="7"/>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>268</v>
-      </c>
-      <c r="C208" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
+        <v>266</v>
+      </c>
+      <c r="C209" t="s">
         <v>269</v>
-      </c>
-      <c r="C209" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
+        <v>267</v>
+      </c>
+      <c r="C210" t="s">
         <v>270</v>
       </c>
-      <c r="C210" t="s">
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>268</v>
+      </c>
+      <c r="C211" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>272</v>
+      </c>
+      <c r="C214" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C213" t="s">
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="10" t="s">
+      <c r="C217" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="C216" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
-        <v>280</v>
-      </c>
-      <c r="C219" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C220" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C221" t="s">
-        <v>286</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C222" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C223" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>282</v>
+      </c>
+      <c r="C224" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="363">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>&lt;ACCESS_METH&gt;</t>
-  </si>
-  <si>
-    <t>dot?;</t>
   </si>
   <si>
     <t>&lt;SST&gt;?null</t>
@@ -374,10 +371,6 @@
     <t>&lt;ACCESS_METH&gt; ? null</t>
   </si>
   <si>
-    <t>&lt;INC_DEC&gt;? (? &lt;UNARY&gt; ?
-&lt;CONST&gt; ? &lt;FLAG&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;DOT_EXPR&gt; ? &lt;SUBSCRIPT&gt; ?&lt;FN_BRACKETS&gt; </t>
   </si>
   <si>
@@ -385,9 +378,6 @@
 &lt;NEW_OBJ&gt; ? &lt;ID_TO_EXPR&gt; </t>
   </si>
   <si>
-    <t>dot ? &lt;ID_TO_EXPR&gt; ? null</t>
-  </si>
-  <si>
     <t>&lt;J1&gt;</t>
   </si>
   <si>
@@ -496,18 +486,9 @@
     <t>= ? ;</t>
   </si>
   <si>
-    <t>&lt;REF_NEWARR&gt; ? &lt;NEW_ARR_CONST&gt;</t>
-  </si>
-  <si>
-    <t>new? &lt;DIM_PASS&gt;</t>
-  </si>
-  <si>
     <t>id ? &lt;NEW_ARR_CONST&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;DOT_ARR&gt;?&lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
-  </si>
-  <si>
     <t>&lt;DOT_ARR&gt; ? ;</t>
   </si>
   <si>
@@ -584,9 +565,6 @@
   </si>
   <si>
     <t>&lt;ARR_CLASS_DEC&gt; ? id &lt;IS_INIT_G&gt;</t>
-  </si>
-  <si>
-    <t>= &lt;INIT&gt; ? ;</t>
   </si>
   <si>
     <t>, ?  ;</t>
@@ -911,10 +889,6 @@
   </si>
   <si>
     <t>def ? Class ? Const ? Null</t>
-  </si>
-  <si>
-    <t>&lt;FN_DEC&gt; ? &lt;GLOBAL_CLASS&gt; ?
-&lt;GLOBAL_DEC&gt; ? null</t>
   </si>
   <si>
     <t>&lt;MAIN&gt; ? &lt;FN_DEC&gt; ? &lt;GLOBAL_CLASS&gt; ?
@@ -935,6 +909,9 @@
     <t>dt ? str</t>
   </si>
   <si>
+    <t>id | dt | str</t>
+  </si>
+  <si>
     <t>id? dt ? Str</t>
   </si>
   <si>
@@ -978,9 +955,6 @@
   </si>
   <si>
     <t>&lt;RET_OBJ_C&gt;</t>
-  </si>
-  <si>
-    <t>Static?dt ? str ? Id ? private ? Protected</t>
   </si>
   <si>
     <t>Static ? &lt;IS_FINAL&gt;</t>
@@ -1064,13 +1038,114 @@
   </si>
   <si>
     <t> dot ? Null ? [ ? (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> till ? thru</t>
+  </si>
+  <si>
+    <t>[ ? protected ? Private ? Id</t>
+  </si>
+  <si>
+    <t>=  ? ;</t>
+  </si>
+  <si>
+    <t>( ? [</t>
+  </si>
+  <si>
+    <t>[ ? Id ? =  ? ;</t>
+  </si>
+  <si>
+    <t>pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ? {  ? }</t>
+  </si>
+  <si>
+    <t>pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ? ]</t>
+  </si>
+  <si>
+    <t>[ ? {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_ARR&gt;? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
+  </si>
+  <si>
+    <t>dot ? Null ? ;</t>
+  </si>
+  <si>
+    <t>dot ? = ? ;  ? [ ? (</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id ? new </t>
+  </si>
+  <si>
+    <t>&lt;FN_DEC&gt; ? &lt;GLOBAL_CLASS&gt; ?
+&lt;GLOBAL_DEC&gt; ? Null</t>
+  </si>
+  <si>
+    <t>&lt;ID_STAR&gt;</t>
+  </si>
+  <si>
+    <t>id ? power ? ;</t>
+  </si>
+  <si>
+    <t>dot ? ;</t>
+  </si>
+  <si>
+    <t>power ?  Mdm ?  Pm ? Rop ? And ? Or ? Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? &lt;ID_TO_EXPR&gt;  </t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? ++ ? --? new? NaN ? power 
+?  Mdm ?  Pm ? Rop ? And ? Or ? Null</t>
+  </si>
+  <si>
+    <t>dot ? power ?  Mdm ?  Pm ? Rop ? And ? 
+Or ? Null</t>
+  </si>
+  <si>
+    <t>dot ? power ?  Mdm ?  Pm ? Rop ? And ? 
+Or ? Null ? [ ? (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;INC_DEC&gt;? (? &lt;UNARY&gt; ?
+&lt;CONST&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">++ ? --? ( ? typeCast ? Not ? intConst ? floatConst 
+? charConst ? boolConst ? strConst </t>
+  </si>
+  <si>
+    <t>parent ? Self ? id ? new? NaN ?  ++ ? --? ( ? typeCast 
+? Not ? intConst ? floatConst 
+? charConst ? boolConst ? strConst ? Pm</t>
+  </si>
+  <si>
+    <t>Static ?dt ? str ? Id ? private ? Protected</t>
+  </si>
+  <si>
+    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  test?  Loop ? do ? stop ? Ret ? Cont ? raise</t>
+  </si>
+  <si>
+    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  test?  Loop ? do ? stop ? Ret ? Cont ? Raise ? Null</t>
+  </si>
+  <si>
+    <t>; ?  if ? Shift ? const ? dt ? id ? Parent ? Self ?  
+test?  Loop ? do ? stop ? Ret ? Cont ? Raise ? {</t>
+  </si>
+  <si>
+    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  test?  Loop ? do ? stop ? Ret ? Cont ? Raise ? Null ? {</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,13 +1156,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1121,7 +1189,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,11 +1199,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1194,15 +1257,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1213,15 +1275,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1230,44 +1289,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
-    <cellStyle name="Accent3" xfId="3" builtinId="37"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
+    <cellStyle name="Accent3" xfId="2" builtinId="37"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="5" builtinId="10"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1545,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D224"/>
+  <dimension ref="B1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B184" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,11 +1620,11 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2"/>
@@ -1581,8 +1634,8 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>289</v>
+      <c r="C3" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1592,7 +1645,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1603,22 +1656,22 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>294</v>
+      <c r="C5" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>293</v>
+      <c r="C6" s="16" t="s">
+        <v>346</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1632,50 +1685,52 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="8" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="C14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -1683,7 +1738,7 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2"/>
@@ -1704,7 +1759,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
@@ -1733,91 +1788,95 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>318</v>
-      </c>
+      <c r="B25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -1831,1422 +1890,1491 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>300</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B47" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>309</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>301</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C52" s="18" t="s">
+      <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>305</v>
-      </c>
+      <c r="B56" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" t="s">
-        <v>319</v>
+        <v>55</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="B65" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="14" t="s">
-        <v>73</v>
+      <c r="B69" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
+      <c r="C75" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+      <c r="D77" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C78" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B79" s="15" t="s">
-        <v>287</v>
-      </c>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>331</v>
-      </c>
+    <row r="80" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>330</v>
+        <v>84</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="12" t="s">
-        <v>93</v>
+      <c r="B85" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>332</v>
-      </c>
+      <c r="B86" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C89" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>338</v>
+      <c r="D89" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C92" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
+      <c r="D92" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C93" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
+      <c r="D93" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D94" s="2"/>
+      <c r="C94" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" s="2"/>
+      <c r="C97" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="14" t="s">
-        <v>122</v>
-      </c>
+      <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="12" t="s">
-        <v>123</v>
+      <c r="B102" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="B103" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="17" t="s">
-        <v>129</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C106" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="14" t="s">
-        <v>132</v>
-      </c>
+      <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="B109" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="14" t="s">
-        <v>137</v>
-      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="B113" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C114" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D115" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D118" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>144</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>157</v>
+      <c r="B119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>158</v>
+        <v>141</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>146</v>
-      </c>
-      <c r="C121" t="s">
-        <v>84</v>
+        <v>142</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D121" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>147</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="C122" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>148</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D123" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>149</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>168</v>
-      </c>
-      <c r="C126" t="s">
-        <v>172</v>
+        <v>145</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>164</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>165</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="6"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C127" s="19" t="s">
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>171</v>
+      </c>
+      <c r="C141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>172</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D142" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>170</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>166</v>
-      </c>
-      <c r="C129" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>171</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>167</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="C143" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>150</v>
-      </c>
-      <c r="C134" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>151</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>152</v>
-      </c>
-      <c r="C136" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="7"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="11" t="s">
+      <c r="C144" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>176</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>177</v>
-      </c>
-      <c r="C140" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>178</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="C145" t="s">
         <v>179</v>
       </c>
-      <c r="C142" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>181</v>
-      </c>
-      <c r="C144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>188</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>189</v>
-      </c>
-      <c r="C148" t="s">
-        <v>194</v>
+        <v>181</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>190</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>23</v>
+        <v>182</v>
+      </c>
+      <c r="C149" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>191</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>195</v>
+        <v>183</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>192</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>154</v>
+        <v>184</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D151" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
+        <v>185</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>186</v>
+      </c>
+      <c r="C153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>191</v>
+      </c>
+      <c r="C156" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D156" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>192</v>
+      </c>
+      <c r="C157" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>193</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>194</v>
+      </c>
+      <c r="C159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>195</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="11" t="s">
+      <c r="C161" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+      <c r="C162" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>198</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>199</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>200</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>199</v>
-      </c>
-      <c r="C156" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>200</v>
-      </c>
-      <c r="C157" s="19" t="s">
+      <c r="C165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>201</v>
+      </c>
+      <c r="C166" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>201</v>
-      </c>
-      <c r="C158" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>202</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>203</v>
-      </c>
-      <c r="C160" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>204</v>
-      </c>
-      <c r="C161" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>205</v>
-      </c>
-      <c r="C162" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>206</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>207</v>
-      </c>
-      <c r="C164" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>208</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>119</v>
-      </c>
-      <c r="C166" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D166" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>209</v>
-      </c>
-      <c r="C167" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C167" t="s">
         <v>210</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="168" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>210</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>218</v>
+        <v>202</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C171" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>221</v>
-      </c>
-      <c r="C172" t="s">
-        <v>224</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B172" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C173" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B176" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>215</v>
+      </c>
+      <c r="C174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>229</v>
-      </c>
-      <c r="C181" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C182" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="13" t="s">
-        <v>234</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>223</v>
+      </c>
+      <c r="C183" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>235</v>
-      </c>
-      <c r="C185" t="s">
-        <v>239</v>
+      <c r="B185" s="12" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>236</v>
-      </c>
-      <c r="C186" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D186" t="s">
-        <v>339</v>
+        <v>228</v>
+      </c>
+      <c r="C186" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>237</v>
-      </c>
-      <c r="C187" t="s">
-        <v>240</v>
+        <v>229</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D187" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>238</v>
-      </c>
-      <c r="C188" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D188" s="24"/>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
+      </c>
+      <c r="C188" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>231</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="10" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>246</v>
-      </c>
-      <c r="C193" t="s">
-        <v>248</v>
+      <c r="B193" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>247</v>
-      </c>
-      <c r="C194" s="19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
+      </c>
+      <c r="C194" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>240</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D195" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>250</v>
-      </c>
-      <c r="C197" t="s">
-        <v>252</v>
+      <c r="B197" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C198" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="13" t="s">
-        <v>254</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>244</v>
+      </c>
+      <c r="C199" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>255</v>
-      </c>
-      <c r="C201" t="s">
-        <v>259</v>
+      <c r="B201" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C202" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>257</v>
-      </c>
-      <c r="C203" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D203" t="s">
-        <v>340</v>
+        <v>249</v>
+      </c>
+      <c r="C203" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>258</v>
-      </c>
-      <c r="C204" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B206" s="11" t="s">
-        <v>263</v>
+        <v>250</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D204" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>251</v>
+      </c>
+      <c r="C205" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="8"/>
+      <c r="B207" s="10" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B208" s="13" t="s">
-        <v>264</v>
-      </c>
+      <c r="B208" s="7"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>266</v>
-      </c>
-      <c r="C209" t="s">
-        <v>269</v>
+      <c r="B209" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C210" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
+        <v>260</v>
+      </c>
+      <c r="C211" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>261</v>
+      </c>
+      <c r="C212" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>265</v>
+      </c>
+      <c r="C215" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
         <v>268</v>
       </c>
-      <c r="C211" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>272</v>
-      </c>
-      <c r="C214" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
-        <v>275</v>
-      </c>
-      <c r="C217" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="11" t="s">
-        <v>277</v>
+      <c r="C218" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
-        <v>278</v>
-      </c>
-      <c r="C220" t="s">
-        <v>283</v>
+      <c r="B220" s="10" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C221" t="s">
-        <v>41</v>
+        <v>276</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C222" t="s">
-        <v>284</v>
+        <v>40</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C223" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C224" t="s">
-        <v>286</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>275</v>
+      </c>
+      <c r="C225" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_collab\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD5121-A7E5-4352-8463-BA84C3EEA7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15585" yWindow="2670" windowWidth="18000" windowHeight="8235"/>
+    <workbookView xWindow="14700" yWindow="1380" windowWidth="18000" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="376">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -114,9 +115,6 @@
   </si>
   <si>
     <t>[</t>
-  </si>
-  <si>
-    <t>Access Modifier, Static and Abstract</t>
   </si>
   <si>
     <t>&lt;ACCESSMOD&gt;</t>
@@ -267,10 +265,6 @@
     <t xml:space="preserve">&lt;DOT_ID&gt;     </t>
   </si>
   <si>
-    <t>&lt;DOT_ID&gt; ? &lt;SUBSCRIPT&gt;  ? 
-&lt;FN_BRACKETS&gt;</t>
-  </si>
-  <si>
     <t>&lt;EXPR_OBJ&gt; ? )</t>
   </si>
   <si>
@@ -289,13 +283,7 @@
     <t xml:space="preserve">&lt;DOT_ID2&gt;    </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;INC_DEC_DOT&gt;? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
-  </si>
-  <si>
     <t>&lt;INC_DEC&gt; ?  &lt;DOT_ID2&gt;</t>
-  </si>
-  <si>
-    <t>dot ? Null</t>
   </si>
   <si>
     <t>Declaration and Initialization</t>
@@ -543,9 +531,6 @@
     <t>&lt;GLOBAL_DEC&gt;</t>
   </si>
   <si>
-    <t>&lt;IS_FINAL_G&gt;</t>
-  </si>
-  <si>
     <t>&lt;VAR_OBJ_G&gt;</t>
   </si>
   <si>
@@ -556,9 +541,6 @@
   </si>
   <si>
     <t>&lt;LIST_G&gt;</t>
-  </si>
-  <si>
-    <t>const ? dt ? Id</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;TYPE&gt; </t>
@@ -882,13 +864,7 @@
     <t xml:space="preserve">&lt;PACKAGE&gt; </t>
   </si>
   <si>
-    <t>Begin?  def ? Class ? Const? null</t>
-  </si>
-  <si>
     <t>Class</t>
-  </si>
-  <si>
-    <t>def ? Class ? Const ? Null</t>
   </si>
   <si>
     <t>&lt;MAIN&gt; ? &lt;FN_DEC&gt; ? &lt;GLOBAL_CLASS&gt; ?
@@ -975,16 +951,10 @@
     <t xml:space="preserve">Static ? const ? dt ? id </t>
   </si>
   <si>
-    <t>dot ? Null ? [ ? (</t>
-  </si>
-  <si>
     <t>parent ? Self ? Null</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;INC_DEC&gt; </t>
-  </si>
-  <si>
-    <t>++ ? --</t>
   </si>
   <si>
     <t>Constants / Increment Decrement</t>
@@ -1006,29 +976,7 @@
 floatConst ? charConst ? boolConst ? strConst ?  new ? NaN</t>
   </si>
   <si>
-    <t xml:space="preserve">++ ? -- ? dot ? Null </t>
-  </si>
-  <si>
-    <t>++ ? -- ? dot ? Null ? [ ? (</t>
-  </si>
-  <si>
     <t xml:space="preserve">const ? dt ? id ? Parent ? Self </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dot ? ++ ? --? = ? cma ? [ ? (</t>
-  </si>
-  <si>
-    <t>[ ? id ? dot ? ++ ? --? = ? cma ? [ ? (</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dot ? ++ ? --? = ? cma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">++ ? --? = ? cma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">]? pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst ?  dot ? ++ ? --? = ? cma </t>
   </si>
   <si>
     <t>[  ? Id</t>
@@ -1100,10 +1048,6 @@
     <t xml:space="preserve">dot ? &lt;ID_TO_EXPR&gt;  </t>
   </si>
   <si>
-    <t>dot ? = ? Cma ? ++ ? --? new? NaN ? power 
-?  Mdm ?  Pm ? Rop ? And ? Or ? Null</t>
-  </si>
-  <si>
     <t>dot ? power ?  Mdm ?  Pm ? Rop ? And ? 
 Or ? Null</t>
   </si>
@@ -1116,36 +1060,134 @@
 &lt;CONST&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">++ ? --? ( ? typeCast ? Not ? intConst ? floatConst 
-? charConst ? boolConst ? strConst </t>
-  </si>
-  <si>
-    <t>parent ? Self ? id ? new? NaN ?  ++ ? --? ( ? typeCast 
+    <t>Static ?dt ? str ? Id ? private ? Protected</t>
+  </si>
+  <si>
+    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  test?  Loop ? do ? stop ? Ret ? Cont ? Raise ? Null ? {</t>
+  </si>
+  <si>
+    <t>&lt;IS_OBJ_G&gt;</t>
+  </si>
+  <si>
+    <t>dt ? Id</t>
+  </si>
+  <si>
+    <t>Begin?  def ?  Class ? Abstract ? const ?
+dt ? Id ?null</t>
+  </si>
+  <si>
+    <t>def ?  Class ? Abstract ? const  ?
+dt ? Id ? Null</t>
+  </si>
+  <si>
+    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? raise</t>
+  </si>
+  <si>
+    <t>; ?  if ? Shift ? const ? dt ? id ? Parent ? Self ?  
+Test ?  Loop ? do ? stop ? Ret ? Cont ? Raise ? {</t>
+  </si>
+  <si>
+    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? Raise ? Null</t>
+  </si>
+  <si>
+    <t>Access Modifier</t>
+  </si>
+  <si>
+    <t>id? dt ? Str ? )</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID&gt; ? &lt;SUBSCRIPT&gt;  ? 
+&lt;FN_BRACKETS&gt; ? Null</t>
+  </si>
+  <si>
+    <t>dot ? ? [ ? ( ? Null</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]? pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ?  dot ? inc_dec ? = ? cma </t>
+  </si>
+  <si>
+    <t>parent ? Self ? id ? new? NaN ?  inc_dec ? ( ? typeCast 
 ? Not ? intConst ? floatConst 
 ? charConst ? boolConst ? strConst ? Pm</t>
   </si>
   <si>
-    <t>Static ?dt ? str ? Id ? private ? Protected</t>
-  </si>
-  <si>
-    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  test?  Loop ? do ? stop ? Ret ? Cont ? raise</t>
-  </si>
-  <si>
-    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  test?  Loop ? do ? stop ? Ret ? Cont ? Raise ? Null</t>
-  </si>
-  <si>
-    <t>; ?  if ? Shift ? const ? dt ? id ? Parent ? Self ?  
-test?  Loop ? do ? stop ? Ret ? Cont ? Raise ? {</t>
-  </si>
-  <si>
-    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  test?  Loop ? do ? stop ? Ret ? Cont ? Raise ? Null ? {</t>
+    <t xml:space="preserve">inc_dec ? ( ? typeCast ? Not ? intConst ? floatConst 
+? charConst ? boolConst ? strConst </t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
+?  Mdm ?  Pm ? Rop ? And ? Or ? Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dot ? inc_dec ? = ? cma ? [ ? (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dot ? inc_dec ? = ? cma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inc_dec ? = ? cma </t>
+  </si>
+  <si>
+    <t>inc_dec</t>
+  </si>
+  <si>
+    <t>[ ? id ? dot ? inc_dec ? = ? cma ? [ ? (</t>
+  </si>
+  <si>
+    <t>&lt;INC_DEC_DOT&gt;? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; ? Null</t>
+  </si>
+  <si>
+    <t>inc_dec ? dot  ? [ ? ( ? Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inc_dec ? dot </t>
+  </si>
+  <si>
+    <t>FOLLOW SET</t>
+  </si>
+  <si>
+    <t>FOLLOW SET (substituting NN)</t>
+  </si>
+  <si>
+    <t>&lt;IMPORTS&gt; ? &lt;ST_BODY&gt;</t>
+  </si>
+  <si>
+    <t>import ? Begin?  def ?  Class ? Abstract ? const ? dt ? Id ? null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>&lt;ST_BODY&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} ? &lt;TWO_MST&gt; </t>
+  </si>
+  <si>
+    <t>f&lt;STATE&gt; ? &lt;DEFAULT&gt;</t>
+  </si>
+  <si>
+    <t>state ? default ? } ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;BODY&gt; ? F&lt;MST&gt; ? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,8 +1230,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1217,8 +1272,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1256,15 +1316,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1314,10 +1384,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
@@ -1597,22 +1675,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D225"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1620,78 +1700,105 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1699,29 +1806,32 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1729,15 +1839,18 @@
         <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
@@ -1788,16 +1901,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -1818,7 +1931,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1827,7 +1940,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -1845,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1854,7 +1967,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1865,17 +1978,17 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1896,56 +2009,58 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -1955,24 +2070,24 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -1982,81 +2097,81 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -2067,75 +2182,75 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -2146,31 +2261,31 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -2180,32 +2295,32 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>29</v>
@@ -2214,59 +2329,59 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2275,41 +2390,41 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>87</v>
+        <v>361</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>88</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>89</v>
+        <v>363</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -2320,163 +2435,163 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D100" s="2"/>
     </row>
@@ -2487,58 +2602,58 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>125</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C105" s="15" t="s">
-        <v>126</v>
-      </c>
       <c r="D105" s="2" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C107" s="15" t="s">
-        <v>128</v>
-      </c>
       <c r="D107" s="4" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
@@ -2548,29 +2663,29 @@
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
@@ -2580,14 +2695,14 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>25</v>
@@ -2598,7 +2713,7 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>25</v>
@@ -2609,183 +2724,183 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D121" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C122" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D123" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127" t="s">
         <v>162</v>
-      </c>
-      <c r="C127" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="128" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
+        <v>159</v>
+      </c>
+      <c r="C128" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C128" s="17" t="s">
-        <v>167</v>
-      </c>
       <c r="D128" s="8" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D129" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C130" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C132" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
@@ -2793,485 +2908,494 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="D140" t="s">
-        <v>176</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="C141" t="s">
-        <v>176</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D142" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="D144" s="5"/>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C145" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C149" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C150" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D151" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C153" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C157" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C159" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C161" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C163" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="164" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C165" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="166" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C167" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C173" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C174" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C182" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>217</v>
+      </c>
+      <c r="C183" t="s">
         <v>219</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="10" t="s">
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="12" t="s">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>222</v>
+      </c>
+      <c r="C186" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>223</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D187" t="s">
+        <v>314</v>
+      </c>
+      <c r="E187" t="s">
         <v>222</v>
       </c>
-      <c r="C182" t="s">
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>223</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="C188" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>228</v>
-      </c>
-      <c r="C186" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+      <c r="C189" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C187" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="D187" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+      <c r="D189" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="F189" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B191" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="C188" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>231</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="10" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C194" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D195" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C198" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C199" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="12" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C202" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C203" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D204" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C205" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
@@ -3279,102 +3403,102 @@
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="12" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C210" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C211" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C212" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C215" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C218" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C221" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C222" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C223" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C224" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C225" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD5121-A7E5-4352-8463-BA84C3EEA7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0EAF7F-3E8E-4AF3-930E-A20239F5750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="1380" windowWidth="18000" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="381">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -707,9 +707,6 @@
     <t>&lt;DEFAULT&gt;</t>
   </si>
   <si>
-    <t>&lt;TWO_MST&gt;</t>
-  </si>
-  <si>
     <t>shift</t>
   </si>
   <si>
@@ -719,9 +716,6 @@
     <t>state ? &lt;DEFAULT&gt; ? }</t>
   </si>
   <si>
-    <t>&lt;MST&gt; ? {</t>
-  </si>
-  <si>
     <t>Loop Statements</t>
   </si>
   <si>
@@ -849,9 +843,6 @@
   </si>
   <si>
     <t>raises ? null</t>
-  </si>
-  <si>
-    <t>finally ? null</t>
   </si>
   <si>
     <t>End with ID and array subscript with posibility of pos 
@@ -1063,9 +1054,6 @@
     <t>Static ?dt ? str ? Id ? private ? Protected</t>
   </si>
   <si>
-    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  test?  Loop ? do ? stop ? Ret ? Cont ? Raise ? Null ? {</t>
-  </si>
-  <si>
     <t>&lt;IS_OBJ_G&gt;</t>
   </si>
   <si>
@@ -1171,23 +1159,50 @@
     <t>&lt;ST_BODY&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">} ? &lt;TWO_MST&gt; </t>
-  </si>
-  <si>
-    <t>f&lt;STATE&gt; ? &lt;DEFAULT&gt;</t>
-  </si>
-  <si>
-    <t>state ? default ? } ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;BODY&gt; ? F&lt;MST&gt; ? </t>
+    <t>&lt;SWITCH_BODY&gt;</t>
+  </si>
+  <si>
+    <t>&lt;MST&gt; ? { ? ;</t>
+  </si>
+  <si>
+    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  test?  Loop ? do ? stop ? Ret ? Cont ? Raise ? Null ? { ? ;</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>&lt;EXCEPT_FINALLY&gt;</t>
+  </si>
+  <si>
+    <t>except ? &lt;FINALLY&gt; ? Null</t>
+  </si>
+  <si>
+    <t>except ? finally ? Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ? &lt;RET_TO_THROW&gt; </t>
+  </si>
+  <si>
+    <t>; ? {</t>
+  </si>
+  <si>
+    <t>&lt;WITH_STATIC&gt;</t>
+  </si>
+  <si>
+    <t>{ ? ;</t>
+  </si>
+  <si>
+    <t>F&lt;MST&gt; ? &lt;MST&gt; ? &lt;BODY&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? Raise </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,8 +1258,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,6 +1297,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1326,15 +1353,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1391,11 +1419,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
@@ -1676,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F225"/>
+  <dimension ref="B1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,8 +1722,8 @@
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="47.42578125" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -1700,13 +1734,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -1721,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1735,16 +1769,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1752,16 +1786,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1769,16 +1803,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1806,8 +1840,9 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>345</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
@@ -1822,13 +1857,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>375</v>
+        <v>379</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -1839,11 +1877,9 @@
         <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>372</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -1901,16 +1937,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -1931,7 +1967,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1940,7 +1976,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -1958,7 +1994,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1967,7 +2003,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1978,7 +2014,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2040,7 +2076,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -2060,7 +2096,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -2076,7 +2112,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -2084,10 +2120,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -2111,40 +2147,46 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="E50" t="s">
+        <v>377</v>
+      </c>
+      <c r="F50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
@@ -2152,21 +2194,24 @@
         <v>50</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="E52" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>49</v>
       </c>
@@ -2175,19 +2220,19 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
@@ -2195,10 +2240,10 @@
         <v>61</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
@@ -2206,19 +2251,19 @@
         <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
@@ -2227,7 +2272,7 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
@@ -2236,7 +2281,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
@@ -2245,7 +2290,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
@@ -2254,7 +2299,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2274,7 +2319,7 @@
         <v>69</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -2285,7 +2330,7 @@
         <v>70</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -2312,10 +2357,10 @@
         <v>72</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -2329,10 +2374,10 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -2353,7 +2398,7 @@
         <v>79</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -2373,7 +2418,7 @@
         <v>80</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -2381,7 +2426,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2390,22 +2435,22 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -2416,7 +2461,7 @@
         <v>85</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -2424,7 +2469,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -2455,7 +2500,7 @@
         <v>103</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
@@ -2466,7 +2511,7 @@
         <v>104</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="60" x14ac:dyDescent="0.25">
@@ -2477,7 +2522,7 @@
         <v>105</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
@@ -2488,7 +2533,7 @@
         <v>106</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
@@ -2508,7 +2553,7 @@
         <v>108</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -2519,7 +2564,7 @@
         <v>109</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="45" x14ac:dyDescent="0.25">
@@ -2527,10 +2572,10 @@
         <v>96</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -2541,7 +2586,7 @@
         <v>110</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="45" x14ac:dyDescent="0.25">
@@ -2552,7 +2597,7 @@
         <v>111</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -2560,10 +2605,10 @@
         <v>99</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -2574,7 +2619,7 @@
         <v>112</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -2622,7 +2667,7 @@
         <v>121</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
@@ -2633,7 +2678,7 @@
         <v>122</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
@@ -2653,7 +2698,7 @@
         <v>124</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
@@ -2685,7 +2730,7 @@
         <v>129</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
@@ -2748,7 +2793,7 @@
         <v>148</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
@@ -2756,7 +2801,7 @@
         <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
@@ -2767,7 +2812,7 @@
         <v>148</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
@@ -2775,10 +2820,10 @@
         <v>138</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D121" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
@@ -2797,7 +2842,7 @@
         <v>149</v>
       </c>
       <c r="D123" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
@@ -2816,7 +2861,7 @@
         <v>151</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
@@ -2835,7 +2880,7 @@
         <v>163</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
@@ -2846,7 +2891,7 @@
         <v>152</v>
       </c>
       <c r="D129" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
@@ -2865,7 +2910,7 @@
         <v>163</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
@@ -2892,7 +2937,7 @@
         <v>154</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
@@ -2916,18 +2961,18 @@
         <v>166</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D140" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C141" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
@@ -2938,7 +2983,7 @@
         <v>171</v>
       </c>
       <c r="D142" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
@@ -2949,7 +2994,7 @@
         <v>172</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
@@ -2957,7 +3002,7 @@
         <v>169</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D144" s="5"/>
     </row>
@@ -2979,10 +3024,10 @@
         <v>175</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
@@ -3001,7 +3046,7 @@
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
@@ -3012,7 +3057,7 @@
         <v>182</v>
       </c>
       <c r="D151" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
@@ -3044,7 +3089,7 @@
         <v>187</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
@@ -3063,7 +3108,7 @@
         <v>189</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
@@ -3082,7 +3127,7 @@
         <v>191</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
@@ -3101,7 +3146,7 @@
         <v>193</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
@@ -3120,7 +3165,7 @@
         <v>202</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
@@ -3139,7 +3184,7 @@
         <v>196</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
@@ -3158,7 +3203,7 @@
         <v>197</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="2:4" ht="60" x14ac:dyDescent="0.25">
@@ -3169,7 +3214,7 @@
         <v>205</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
@@ -3185,7 +3230,7 @@
         <v>210</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
@@ -3206,7 +3251,7 @@
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3219,10 +3264,10 @@
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
@@ -3242,6 +3287,7 @@
       <c r="C182" t="s">
         <v>218</v>
       </c>
+      <c r="E182" s="17"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
@@ -3250,6 +3296,7 @@
       <c r="C183" t="s">
         <v>219</v>
       </c>
+      <c r="E183" s="17"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
@@ -3261,244 +3308,257 @@
         <v>222</v>
       </c>
       <c r="C186" t="s">
-        <v>226</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E186" s="17"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>223</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D187" t="s">
-        <v>314</v>
-      </c>
-      <c r="E187" t="s">
-        <v>222</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E187" s="17"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>224</v>
       </c>
       <c r="C188" t="s">
-        <v>227</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E188" s="17"/>
     </row>
     <row r="189" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>225</v>
+        <v>368</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>229</v>
+        <v>369</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E189" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="F189" s="23" t="s">
-        <v>374</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E189" s="17"/>
+      <c r="F189" s="23"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
+        <v>231</v>
+      </c>
+      <c r="C194" t="s">
         <v>233</v>
-      </c>
-      <c r="C194" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
+        <v>232</v>
+      </c>
+      <c r="C195" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C195" s="17" t="s">
-        <v>236</v>
-      </c>
       <c r="D195" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
+        <v>235</v>
+      </c>
+      <c r="C198" t="s">
         <v>237</v>
-      </c>
-      <c r="C198" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
+        <v>236</v>
+      </c>
+      <c r="C199" t="s">
         <v>238</v>
-      </c>
-      <c r="C199" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C202" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C203" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D204" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C205" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
+      <c r="C210" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>252</v>
+      </c>
+      <c r="C211" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
         <v>253</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C212" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>254</v>
-      </c>
-      <c r="C211" t="s">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>255</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="C215" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C215" t="s">
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="10" t="s">
+      <c r="C218" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C218" t="s">
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="10" t="s">
+      <c r="C221" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>372</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D222" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
+      <c r="C223" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
         <v>265</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C224" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>266</v>
+      </c>
+      <c r="C225" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>266</v>
-      </c>
-      <c r="C222" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
+      <c r="E225" t="s">
+        <v>375</v>
+      </c>
+      <c r="F225" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
         <v>267</v>
       </c>
-      <c r="C223" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>268</v>
-      </c>
-      <c r="C224" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>269</v>
-      </c>
-      <c r="C225" t="s">
-        <v>273</v>
+      <c r="C226" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0EAF7F-3E8E-4AF3-930E-A20239F5750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFD834-FD31-4ADD-8737-9727DEEBFA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1162,12 +1162,6 @@
     <t>&lt;SWITCH_BODY&gt;</t>
   </si>
   <si>
-    <t>&lt;MST&gt; ? { ? ;</t>
-  </si>
-  <si>
-    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  test?  Loop ? do ? stop ? Ret ? Cont ? Raise ? Null ? { ? ;</t>
-  </si>
-  <si>
     <t>finally</t>
   </si>
   <si>
@@ -1183,26 +1177,33 @@
     <t xml:space="preserve">{ ? &lt;RET_TO_THROW&gt; </t>
   </si>
   <si>
-    <t>; ? {</t>
-  </si>
-  <si>
-    <t>&lt;WITH_STATIC&gt;</t>
-  </si>
-  <si>
     <t>{ ? ;</t>
   </si>
   <si>
     <t>F&lt;MST&gt; ? &lt;MST&gt; ? &lt;BODY&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? Raise </t>
+    <t xml:space="preserve">state ? default ? } </t>
+  </si>
+  <si>
+    <t>{ ? ; ? &lt;MST&gt;</t>
+  </si>
+  <si>
+    <t>{ ? ; if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? Raise ? state ? default ? }</t>
+  </si>
+  <si>
+    <t>} ? F&lt;STATE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE&gt; ?&lt;DT_ID&gt; ? Id ? F&lt;ACCESSMOD&gt; ? 
+F&lt;ARR_INIT&gt; ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,13 +1248,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1266,7 +1260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1292,11 +1286,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1353,16 +1342,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1412,24 +1400,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
-    <cellStyle name="Bad" xfId="5" builtinId="27"/>
-    <cellStyle name="Good" xfId="6" builtinId="26"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
@@ -1710,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F226"/>
+  <dimension ref="B1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,11 +1705,12 @@
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="47.42578125" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1742,15 +1726,18 @@
       <c r="F1" s="22" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1760,11 +1747,11 @@
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="24" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1777,11 +1764,11 @@
       <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="24" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1794,11 +1781,11 @@
       <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="24" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1811,28 +1798,28 @@
       <c r="E6" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="24" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1843,16 +1830,17 @@
         <v>341</v>
       </c>
       <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1863,13 +1851,11 @@
         <v>340</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1879,21 +1865,26 @@
       <c r="D14" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1902,19 +1893,19 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +1914,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1932,7 +1923,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1941,7 +1932,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>327</v>
       </c>
@@ -1950,19 +1941,19 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1971,7 +1962,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +1971,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
@@ -1989,7 +1980,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
@@ -1997,8 +1988,11 @@
         <v>277</v>
       </c>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2007,12 +2001,12 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>343</v>
       </c>
@@ -2147,7 +2141,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2158,7 +2152,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>292</v>
       </c>
@@ -2168,14 +2162,8 @@
       <c r="D50" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E50" t="s">
-        <v>377</v>
-      </c>
-      <c r="F50" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>293</v>
       </c>
@@ -2186,7 +2174,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
@@ -2196,11 +2184,8 @@
       <c r="D52" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E52" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>295</v>
       </c>
@@ -2211,7 +2196,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>49</v>
       </c>
@@ -2220,19 +2205,19 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
@@ -2243,7 +2228,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
@@ -2254,7 +2239,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
@@ -2263,7 +2248,7 @@
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
@@ -2272,7 +2257,7 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
@@ -2281,7 +2266,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
@@ -2290,7 +2275,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
@@ -2299,7 +2284,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3254,7 +3239,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>213</v>
       </c>
@@ -3262,7 +3247,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>303</v>
       </c>
@@ -3270,17 +3255,17 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>216</v>
       </c>
@@ -3289,7 +3274,7 @@
       </c>
       <c r="E182" s="17"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>217</v>
       </c>
@@ -3298,21 +3283,20 @@
       </c>
       <c r="E183" s="17"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>222</v>
       </c>
       <c r="C186" t="s">
         <v>225</v>
       </c>
-      <c r="E186" s="17"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>223</v>
       </c>
@@ -3322,31 +3306,27 @@
       <c r="D187" t="s">
         <v>311</v>
       </c>
-      <c r="E187" s="17"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>224</v>
       </c>
       <c r="C188" t="s">
         <v>226</v>
       </c>
-      <c r="E188" s="17"/>
-    </row>
-    <row r="189" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>368</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="E189" s="17"/>
-      <c r="F189" s="23"/>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
         <v>228</v>
       </c>
@@ -3514,13 +3494,13 @@
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
+        <v>370</v>
+      </c>
+      <c r="C222" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D222" t="s">
         <v>372</v>
-      </c>
-      <c r="C222" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D222" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
@@ -3547,10 +3527,10 @@
         <v>270</v>
       </c>
       <c r="E225" t="s">
-        <v>375</v>
-      </c>
-      <c r="F225" s="25" t="s">
-        <v>378</v>
+        <v>373</v>
+      </c>
+      <c r="F225" s="24" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
@@ -3558,7 +3538,7 @@
         <v>267</v>
       </c>
       <c r="C226" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFD834-FD31-4ADD-8737-9727DEEBFA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569764B-1B05-46D4-9DBD-F8C29FA7E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="385">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -1088,9 +1088,6 @@
 &lt;FN_BRACKETS&gt; ? Null</t>
   </si>
   <si>
-    <t>dot ? ? [ ? ( ? Null</t>
-  </si>
-  <si>
     <t>dot</t>
   </si>
   <si>
@@ -1180,9 +1177,6 @@
     <t>{ ? ;</t>
   </si>
   <si>
-    <t>F&lt;MST&gt; ? &lt;MST&gt; ? &lt;BODY&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">state ? default ? } </t>
   </si>
   <si>
@@ -1195,8 +1189,26 @@
     <t>} ? F&lt;STATE&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">F&lt;ARR_INIT&gt;  ? F&lt;ACCESSMOD&gt; ?  Id </t>
+  </si>
+  <si>
     <t>&lt;ARR_TYPE&gt; ?&lt;DT_ID&gt; ? Id ? F&lt;ACCESSMOD&gt; ? 
-F&lt;ARR_INIT&gt; ?</t>
+F&lt;ARR_INIT&gt;</t>
+  </si>
+  <si>
+    <t> id ? protected?private</t>
+  </si>
+  <si>
+    <t>F&lt;FN_ST&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;RET_TYPE_C&gt; </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>dot ? [ ? ( ? Null</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1362,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1408,6 +1420,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
@@ -1695,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,13 +1736,13 @@
         <v>272</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>362</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -1748,7 +1763,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1756,16 +1771,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1782,7 +1797,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1796,10 +1811,10 @@
         <v>339</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1850,9 +1865,6 @@
       <c r="D13" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>375</v>
-      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1866,10 +1878,10 @@
         <v>342</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1884,7 +1896,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1893,19 +1905,19 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1914,7 +1926,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1923,7 +1935,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1932,7 +1944,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>327</v>
       </c>
@@ -1941,19 +1953,19 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1962,7 +1974,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1971,7 +1983,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
@@ -1979,8 +1991,14 @@
         <v>29</v>
       </c>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E28" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
@@ -1989,10 +2007,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2001,19 +2022,19 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>343</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2022,29 +2043,29 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
@@ -2053,7 +2074,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
@@ -2062,7 +2083,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
@@ -2073,7 +2094,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -2082,7 +2103,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
@@ -2093,12 +2114,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
@@ -2109,7 +2130,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
@@ -2119,20 +2140,29 @@
       <c r="D45" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
@@ -2141,7 +2171,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2152,7 +2182,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>292</v>
       </c>
@@ -2163,7 +2193,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>293</v>
       </c>
@@ -2174,7 +2204,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
@@ -2185,7 +2215,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>295</v>
       </c>
@@ -2195,8 +2225,17 @@
       <c r="D53" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>49</v>
       </c>
@@ -2205,19 +2244,19 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
@@ -2228,7 +2267,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
@@ -2239,7 +2278,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
@@ -2248,7 +2287,7 @@
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
@@ -2256,8 +2295,11 @@
         <v>63</v>
       </c>
       <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2307,11 @@
         <v>64</v>
       </c>
       <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
@@ -2275,7 +2320,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
@@ -2284,7 +2329,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2345,7 +2390,7 @@
         <v>345</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -2411,7 +2456,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2432,10 +2477,10 @@
         <v>82</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -2446,7 +2491,7 @@
         <v>85</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -2454,7 +2499,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -2496,7 +2541,7 @@
         <v>104</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="60" x14ac:dyDescent="0.25">
@@ -2507,7 +2552,7 @@
         <v>105</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
@@ -2538,7 +2583,7 @@
         <v>108</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -2560,7 +2605,7 @@
         <v>334</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -2582,7 +2627,7 @@
         <v>111</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -2652,7 +2697,7 @@
         <v>121</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
@@ -2663,7 +2708,7 @@
         <v>122</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
@@ -2683,7 +2728,7 @@
         <v>124</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
@@ -3252,7 +3297,7 @@
         <v>303</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
@@ -3317,13 +3362,13 @@
     </row>
     <row r="189" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
@@ -3494,13 +3539,13 @@
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
+        <v>369</v>
+      </c>
+      <c r="C222" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C222" s="23" t="s">
+      <c r="D222" t="s">
         <v>371</v>
-      </c>
-      <c r="D222" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
@@ -3527,10 +3572,10 @@
         <v>270</v>
       </c>
       <c r="E225" t="s">
+        <v>372</v>
+      </c>
+      <c r="F225" s="24" t="s">
         <v>373</v>
-      </c>
-      <c r="F225" s="24" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
@@ -3538,7 +3583,7 @@
         <v>267</v>
       </c>
       <c r="C226" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569764B-1B05-46D4-9DBD-F8C29FA7E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF8920-C6CA-4DFB-B472-A3B62AB05EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="395">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -1209,13 +1209,45 @@
   </si>
   <si>
     <t>dot ? [ ? ( ? Null</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID&gt; ? F&lt;ID_TO_EXPR&gt; ? &lt;OPERAND&gt;</t>
+  </si>
+  <si>
+    <t>power ?  Mdm ?  Pm ? Rop ? 
+And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;OPERAND&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;LIST&gt; ? &lt;DOT_EXPR&gt; ? ; F&lt;LIST_G&gt; ? F&lt;LIST_C&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ASSIGN_EXPR&gt;</t>
+  </si>
+  <si>
+    <t>&lt;INIT&gt;  ? &lt;DOT_EXPR&gt; ? &lt;DOT_EXPR2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;INIT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;OPER_TO_EXPR&gt; ? &lt;DOT_EXPR&gt; ? 
+&lt;DOT_EXPR2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;OPER_TO_EXPR&gt;  ? , ? ;</t>
+  </si>
+  <si>
+    <t>&lt;INIT&gt; ? F&lt;ID_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
+  </si>
+  <si>
+    <t>, ? ; ? power ?  Mdm ?  Pm ? Rop ? And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,6 +1292,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1272,7 +1311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1298,6 +1337,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1354,15 +1398,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1412,22 +1457,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
-    <cellStyle name="Good" xfId="5" builtinId="26"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
@@ -1710,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="B93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +2043,7 @@
       <c r="E28" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="26" t="s">
         <v>380</v>
       </c>
     </row>
@@ -2334,14 +2383,14 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
@@ -2352,7 +2401,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
@@ -2363,26 +2412,26 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>72</v>
       </c>
@@ -2392,8 +2441,14 @@
       <c r="D71" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
@@ -2402,7 +2457,7 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>288</v>
       </c>
@@ -2411,7 +2466,7 @@
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
@@ -2420,7 +2475,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>75</v>
       </c>
@@ -2431,7 +2486,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
@@ -2440,7 +2495,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
@@ -2451,7 +2506,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
@@ -2460,19 +2515,19 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
         <v>271</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>82</v>
       </c>
@@ -2483,7 +2538,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>83</v>
       </c>
@@ -2494,7 +2549,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>84</v>
       </c>
@@ -2503,26 +2558,26 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>89</v>
       </c>
@@ -2533,7 +2588,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>90</v>
       </c>
@@ -2544,7 +2599,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>91</v>
       </c>
@@ -2555,7 +2610,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>92</v>
       </c>
@@ -2566,7 +2621,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>93</v>
       </c>
@@ -2575,7 +2630,7 @@
       </c>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>94</v>
       </c>
@@ -2585,8 +2640,14 @@
       <c r="D92" s="8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>95</v>
       </c>
@@ -2597,7 +2658,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>96</v>
       </c>
@@ -2607,8 +2668,14 @@
       <c r="D94" s="20" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>390</v>
+      </c>
+      <c r="F94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>97</v>
       </c>
@@ -2618,8 +2685,17 @@
       <c r="D95" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E95" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>98</v>
       </c>
@@ -2629,8 +2705,17 @@
       <c r="D96" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E96" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>99</v>
       </c>
@@ -2640,8 +2725,17 @@
       <c r="D97" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>100</v>
       </c>
@@ -2651,8 +2745,17 @@
       <c r="D98" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>101</v>
       </c>
@@ -2661,7 +2764,7 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>102</v>
       </c>
@@ -2670,26 +2773,26 @@
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
         <v>115</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>117</v>
       </c>
@@ -2700,7 +2803,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>118</v>
       </c>
@@ -2711,7 +2814,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>119</v>
       </c>
@@ -2720,7 +2823,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>120</v>
       </c>
@@ -2731,19 +2834,19 @@
         <v>353</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>126</v>
       </c>
@@ -2752,7 +2855,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>127</v>
       </c>
@@ -2763,7 +2866,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -3160,7 +3263,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>190</v>
       </c>
@@ -3168,7 +3271,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>191</v>
       </c>
@@ -3179,7 +3282,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>192</v>
       </c>
@@ -3187,7 +3290,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="164" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>193</v>
       </c>
@@ -3198,7 +3301,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>194</v>
       </c>
@@ -3206,7 +3309,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>195</v>
       </c>
@@ -3217,7 +3320,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>112</v>
       </c>
@@ -3225,7 +3328,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="168" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>196</v>
       </c>
@@ -3236,7 +3339,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="169" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>197</v>
       </c>
@@ -3247,12 +3350,12 @@
         <v>306</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="172" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" s="9" t="s">
         <v>207</v>
       </c>
@@ -3262,8 +3365,14 @@
       <c r="D172" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>208</v>
       </c>
@@ -3271,7 +3380,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>209</v>
       </c>
@@ -3279,7 +3388,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
         <v>304</v>
       </c>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF8920-C6CA-4DFB-B472-A3B62AB05EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC325875-B07F-443C-9873-F2568A571E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="447">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -271,9 +271,6 @@
     <t>&lt;EXPR&gt; ? &lt;NEW_OBJ&gt;</t>
   </si>
   <si>
-    <t>dot ? null</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;POS2&gt;       </t>
   </si>
   <si>
@@ -768,12 +765,6 @@
   </si>
   <si>
     <t xml:space="preserve">id? ( </t>
-  </si>
-  <si>
-    <t>&lt;DOT_ID5&gt; ? &lt;SUBSCRIPT&gt;? &lt;FN_BRACKETS&gt;</t>
-  </si>
-  <si>
-    <t> dot ? null</t>
   </si>
   <si>
     <t>Jump Statements</t>
@@ -976,9 +967,6 @@
     <t>state ? default ? }</t>
   </si>
   <si>
-    <t> dot ? Null ? [ ? (</t>
-  </si>
-  <si>
     <t xml:space="preserve"> till ? thru</t>
   </si>
   <si>
@@ -1003,15 +991,6 @@
   </si>
   <si>
     <t>[ ? {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;DOT_ARR&gt;? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
-  </si>
-  <si>
-    <t>dot ? Null ? ;</t>
-  </si>
-  <si>
-    <t>dot ? = ? ;  ? [ ? (</t>
   </si>
   <si>
     <t>new</t>
@@ -1241,13 +1220,203 @@
   </si>
   <si>
     <t>, ? ; ? power ?  Mdm ?  Pm ? Rop ? And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]  ? ) ? F&lt;EXPR_LIST&gt; ? Or ? : ? , ? ; ?  &lt;EXPR_OBJ&gt; </t>
+  </si>
+  <si>
+    <t>F&lt;ARG_LIST&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EXPR&gt;  ? &lt;ID_TO_EXPR&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;EXPR1&gt; ? &lt;ID_TO_EXPR&gt; ? &lt;F&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;F1&gt; ? F&lt;EXPR1&gt; ? &lt;ID_TO_EXPR&gt; ?  &lt;G&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;G1&gt; ? F&lt;F1&gt; ? F&lt;EXPR1&gt; ?  &lt;ID_TO_EXPR&gt; ?  
+&lt;H&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&lt;H1&gt; ? F&lt;G1&gt; ? F&lt;F1&gt; ? F&lt;EXPR1&gt; ? 
+&lt;ID_TO_EXPR&gt; ? &lt;I&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&lt;I1&gt; ? F&lt;H1&gt; ? F&lt;G1&gt; ? F&lt;F1&gt; ? F&lt;EXPR1&gt; ? 
+&lt;ID_TO_EXPR&gt; ? &lt;J&gt; </t>
+  </si>
+  <si>
+    <t>or ? , ? ; ? &lt;F&gt;</t>
+  </si>
+  <si>
+    <t>and ? or ? , ? ; ? &lt;F&gt; ? &lt;G&gt;</t>
+  </si>
+  <si>
+    <t>rop ? and ? or ? , ? ; ? &lt;F&gt; ? &lt;G&gt; ? &lt;H&gt;</t>
+  </si>
+  <si>
+    <t>pm ? rop ? and ? or ? , ? ; ? &lt;F&gt; 
+? &lt;G&gt; ? &lt;H&gt; ? &lt;I&gt;</t>
+  </si>
+  <si>
+    <t>mdm ? pm ? rop ? and ? or ? , ? ; ? &lt;F&gt; 
+? &lt;G&gt; ? &lt;H&gt; ? &lt;I&gt; ? &lt;J&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;F1&gt; ? &lt;F&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;EXPR1&gt; ? &lt;EXPR&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;G1&gt; ? &lt;G&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;H1&gt; ? &lt;H&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;J1&gt; ? &lt;J&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;I1&gt; ? &lt;I&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]  ? ) ? , ? }  ? Or ? :  ? ; </t>
+  </si>
+  <si>
+    <t>or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t>and ? or ? ]  ? ) ? , ? }   ? :  ? ; 
+?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rop ? and ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm? rop ? and ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdm? pm? rop ? and ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">power ? mdm? pm? rop ? and ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">power ?  Mdm ?  Pm ? Rop 
+? And ? Or ?  ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">power ?  Mdm ?  Pm ? Rop ? 
+And ? Or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t>id ? F&lt;ARR_INIT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;SUBSCRIPT&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;DOT_ID&gt; ? F&lt;INC_DEC_DOT&gt; ? F&lt;DOT_EXPR&gt; ?
+ F&lt;DOT_ID3&gt;? F&lt;DOT_ARR&gt; ?F&lt;DOT_ID5&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID5&gt; ? &lt;SUBSCRIPT&gt;? &lt;FN_BRACKETS&gt; ? Null</t>
+  </si>
+  <si>
+    <t> dot</t>
+  </si>
+  <si>
+    <t> dot ? [ ? ( ? Null</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
+?  Mdm ?  Pm ? Rop ? And ? Or ? 
+&lt;ASSIGN_EXPR&gt;</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
+?  Mdm ?  Pm ? Rop ? And ? Or ? 
+, ? ;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ARR&gt;? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; ? Null</t>
+  </si>
+  <si>
+    <t>dot ? = ? ;  ? [ ? ( ? Null</t>
+  </si>
+  <si>
+    <t>dot  ? ;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID2&gt; ? &lt;OPERANDS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;POS2&gt; ? &lt;INC_DEC&gt;</t>
+  </si>
+  <si>
+    <t>&lt;POS2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;OPERANDS&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;MORE_REF_STR&gt; ? &lt;DOT_ARR&gt; ? &lt;CHOICE&gt;</t>
+  </si>
+  <si>
+    <t>= ? ; ?</t>
+  </si>
+  <si>
+    <t>&lt;POSARR&gt; ? &lt;DOT_ARR_TRMIN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;POSARR&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;POSARR&gt; </t>
+  </si>
+  <si>
+    <t>&lt;IS_ARR_INIT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ARR_INIT&gt; </t>
+  </si>
+  <si>
+    <t>&lt;ARR_DEC&gt; ? &lt;ARR_CLASS_DEC&gt;</t>
+  </si>
+  <si>
+    <t>&lt;VAR_ARR&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;VAR_ARR_C&gt;  ? &lt;VAR_ARR_G&gt; </t>
+  </si>
+  <si>
+    <t>&lt;DEC&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;MST&gt; ? &lt;MST&gt; ? &lt;BODY&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&lt;OELSE&gt; ? &lt;OELSE&gt; ? &lt;IF_ELSE&gt; ? &lt;WHILE_ST&gt;  till ? &lt;FOR_ST&gt; </t>
+  </si>
+  <si>
+    <t>else ? Till ? &lt;SST&gt;</t>
+  </si>
+  <si>
+    <t>state ? default ? } else ? Till</t>
+  </si>
+  <si>
+    <t>state ? default ? } else ? Till ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,8 +1479,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,8 +1525,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1397,8 +1578,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1406,8 +1598,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1465,19 +1658,54 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
@@ -1757,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G226"/>
+  <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="B101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1999,7 @@
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
@@ -1782,16 +2010,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -1806,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1820,16 +2048,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1837,16 +2065,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1854,16 +2082,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1891,10 +2119,17 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="G10" s="8"/>
+        <v>334</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" t="s">
+        <v>444</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
@@ -1909,10 +2144,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>340</v>
+        <v>333</v>
+      </c>
+      <c r="E13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" t="s">
+        <v>445</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -1924,13 +2165,13 @@
         <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1989,16 +2230,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -2019,7 +2260,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -2028,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -2041,10 +2282,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>380</v>
+        <v>371</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -2052,14 +2293,14 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -2067,7 +2308,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -2078,7 +2319,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2091,6 +2332,12 @@
         <v>31</v>
       </c>
       <c r="D33" s="2"/>
+      <c r="E33" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -2140,7 +2387,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -2160,7 +2407,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -2176,7 +2423,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -2184,16 +2431,16 @@
         <v>41</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>39</v>
@@ -2225,32 +2472,32 @@
         <v>47</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -2261,24 +2508,24 @@
         <v>50</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>39</v>
@@ -2313,7 +2560,7 @@
         <v>61</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -2324,7 +2571,7 @@
         <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
@@ -2332,7 +2579,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -2345,7 +2592,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="24" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -2383,14 +2630,14 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
@@ -2398,10 +2645,10 @@
         <v>69</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
@@ -2409,46 +2656,50 @@
         <v>70</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
@@ -2456,17 +2707,32 @@
         <v>29</v>
       </c>
       <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
@@ -2475,7 +2741,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>75</v>
       </c>
@@ -2483,10 +2749,10 @@
         <v>79</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
@@ -2495,7 +2761,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
@@ -2503,60 +2769,87 @@
         <v>80</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="F77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D83" s="2"/>
+      <c r="E83" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
@@ -2565,211 +2858,226 @@
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="F90" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E94" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="G98" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="F98" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="G98" s="24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" s="2"/>
     </row>
@@ -2780,58 +3088,58 @@
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
@@ -2841,29 +3149,29 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
@@ -2871,16 +3179,16 @@
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>25</v>
@@ -2888,10 +3196,16 @@
       <c r="D114" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>439</v>
+      </c>
+      <c r="F114" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>25</v>
@@ -2899,186 +3213,218 @@
       <c r="D115" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>440</v>
+      </c>
+      <c r="F115" s="39" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C117" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="2" t="s">
+      <c r="D117" s="2"/>
+      <c r="E117" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C118" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="2" t="s">
+      <c r="D118" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E118" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C119" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G120" s="39"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="D121" t="s">
+        <v>425</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="F121" s="40" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" t="s">
+        <v>339</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>137</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>138</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="D121" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>139</v>
-      </c>
-      <c r="C122" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+      <c r="D123" t="s">
+        <v>426</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="G123" s="39"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>140</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C124" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D123" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+    </row>
+    <row r="125" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>141</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C125" s="17" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="125" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>142</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="D125" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>158</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" s="17" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="128" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>159</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="D128" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D129" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
@@ -3086,493 +3432,580 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D140" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D142" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>169</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D144" s="5"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>170</v>
-      </c>
       <c r="C145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="10" t="s">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+      <c r="C148" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>175</v>
       </c>
-      <c r="C148" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D148" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+      <c r="C149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>176</v>
-      </c>
-      <c r="C149" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>177</v>
       </c>
       <c r="C150" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
+        <v>177</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D151" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>178</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C152" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>179</v>
+      </c>
+      <c r="C153" t="s">
         <v>182</v>
       </c>
-      <c r="D151" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>179</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>180</v>
-      </c>
-      <c r="C153" t="s">
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
+    <row r="156" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="156" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+      <c r="C156" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>185</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C157" t="s">
+        <v>197</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="F157" s="31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>186</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>187</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>186</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="C159" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="158" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>187</v>
-      </c>
-      <c r="C158" s="17" t="s">
+      <c r="E159" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F159" s="34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>188</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="F160" s="28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>189</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>188</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="C161" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="160" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>189</v>
-      </c>
-      <c r="C160" s="17" t="s">
+      <c r="E161" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F161" s="34" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>190</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>191</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>190</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="C163" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="162" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>191</v>
-      </c>
-      <c r="C162" s="17" t="s">
+      <c r="E163" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="F163" s="34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>192</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E164" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="F164" s="28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>193</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>192</v>
-      </c>
-      <c r="C163" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>193</v>
-      </c>
-      <c r="C164" s="17" t="s">
+      <c r="C165" t="s">
         <v>202</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+      <c r="E165" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="F165" s="26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
         <v>194</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E166" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="F166" s="28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="166" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+      <c r="E167" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="F167" s="26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
         <v>195</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C168" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>112</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D168" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E168" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>196</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="168" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>196</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>197</v>
-      </c>
-      <c r="C169" s="17" t="s">
+      <c r="D169" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E169" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="10" t="s">
+    </row>
+    <row r="172" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B172" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="172" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B172" s="9" t="s">
+      <c r="C172" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F172" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>207</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C173" t="s">
         <v>210</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E172" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="F172" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>208</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>209</v>
-      </c>
-      <c r="C174" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C182" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E182" s="17"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C183" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E183" s="17"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C186" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D187" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C188" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D195" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C198" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C199" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C202" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C203" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>246</v>
+        <v>419</v>
       </c>
       <c r="D204" t="s">
-        <v>312</v>
+        <v>421</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C205" t="s">
-        <v>247</v>
+        <v>420</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
@@ -3580,86 +4013,86 @@
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
+        <v>248</v>
+      </c>
+      <c r="C210" t="s">
         <v>251</v>
-      </c>
-      <c r="C210" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
+        <v>249</v>
+      </c>
+      <c r="C211" t="s">
         <v>252</v>
-      </c>
-      <c r="C211" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
+        <v>250</v>
+      </c>
+      <c r="C212" t="s">
         <v>253</v>
-      </c>
-      <c r="C212" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C215" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C218" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C221" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D222" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C223" t="s">
         <v>39</v>
@@ -3667,32 +4100,32 @@
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C224" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C225" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E225" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F225" s="24" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C226" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC325875-B07F-443C-9873-F2568A571E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8E873-55F0-412F-8181-75E2BE8C1D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="454">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -1367,9 +1367,6 @@
     <t>F&lt;MORE_REF_STR&gt; ? &lt;DOT_ARR&gt; ? &lt;CHOICE&gt;</t>
   </si>
   <si>
-    <t>= ? ; ?</t>
-  </si>
-  <si>
     <t>&lt;POSARR&gt; ? &lt;DOT_ARR_TRMIN&gt;</t>
   </si>
   <si>
@@ -1409,14 +1406,45 @@
     <t>state ? default ? } else ? Till</t>
   </si>
   <si>
-    <t>state ? default ? } else ? Till ?</t>
+    <t>&lt;IS_FINAL&gt; ? &lt;VAR_OBJ_C&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;CLASS_BODY&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;ST_BODY&gt; ?  F&lt;ST_BODY2&gt; ? &lt;ST_BODY&gt; ? 
+&lt;ST_BODY2&gt;</t>
+  </si>
+  <si>
+    <t>Begin?  def ?  Class ? Abstract ? 
+const ? dt ? Id ? $</t>
+  </si>
+  <si>
+    <t>def ?  Static ? const ? dt ? id  ? }
+ ? Begin?  Class ? Abstract ?  $</t>
+  </si>
+  <si>
+    <t>state ? default ? } else ? Till ? def ?  Static ? const ? dt ? id  ? }
+ ? Begin?  Class ? Abstract ?  $</t>
+  </si>
+  <si>
+    <t>= ? ; ? &lt;POSARR&gt; ? &lt;CHOICE&gt;</t>
+  </si>
+  <si>
+    <t>= ? ; ? state ? default ? } else ? Till ? def ?  Static ? const ? dt ? id  ? }
+ ? Begin?  Class ? Abstract ?  $</t>
+  </si>
+  <si>
+    <t>= ? ; ? state ? default ? } else ? Till 
+? def ?  Static ? const ? dt ? id  ? }
+ ? Begin?  Class ? Abstract ?  $</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,13 +1489,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1487,7 +1508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1513,11 +1534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1590,15 +1606,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1650,21 +1665,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1674,38 +1689,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
-    <cellStyle name="Bad" xfId="5" builtinId="27"/>
-    <cellStyle name="Good" xfId="6" builtinId="26"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="7" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
@@ -1987,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="C119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,7 +2015,7 @@
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
@@ -2122,13 +2138,13 @@
         <v>334</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10" t="s">
         <v>443</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -2150,10 +2166,10 @@
         <v>333</v>
       </c>
       <c r="E13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -2658,6 +2674,12 @@
       <c r="D67" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="E67" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="F67" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
@@ -2884,7 +2906,7 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -2920,10 +2942,10 @@
         <v>307</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F90" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
@@ -3197,13 +3219,13 @@
         <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F114" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>131</v>
       </c>
@@ -3214,13 +3236,14 @@
         <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>440</v>
-      </c>
-      <c r="F115" s="39" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>132</v>
       </c>
@@ -3229,10 +3252,13 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>133</v>
       </c>
@@ -3241,10 +3267,13 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>134</v>
       </c>
@@ -3255,7 +3284,10 @@
         <v>318</v>
       </c>
       <c r="E118" t="s">
-        <v>436</v>
+        <v>435</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
@@ -3276,9 +3308,8 @@
       <c r="D120" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="G120" s="39"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>137</v>
       </c>
@@ -3291,11 +3322,14 @@
       <c r="E121" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="F121" s="40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F121" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="G121" s="40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>138</v>
       </c>
@@ -3303,13 +3337,16 @@
         <v>339</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="G122" s="20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>139</v>
       </c>
@@ -3320,9 +3357,11 @@
         <v>426</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="G123" s="39"/>
+        <v>433</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
@@ -3362,7 +3401,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>159</v>
       </c>
@@ -3373,7 +3412,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>155</v>
       </c>
@@ -3381,7 +3420,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>160</v>
       </c>
@@ -3392,7 +3431,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>156</v>
       </c>
@@ -3400,7 +3439,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>142</v>
       </c>
@@ -3408,7 +3447,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="136" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>143</v>
       </c>
@@ -3419,23 +3458,24 @@
         <v>314</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>144</v>
       </c>
       <c r="C137" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>165</v>
       </c>
@@ -3445,16 +3485,28 @@
       <c r="D140" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>329</v>
       </c>
       <c r="C141" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>166</v>
       </c>
@@ -3465,7 +3517,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>167</v>
       </c>
@@ -3475,8 +3527,14 @@
       <c r="D143" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>168</v>
       </c>
@@ -3485,7 +3543,7 @@
       </c>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>169</v>
       </c>
@@ -3493,12 +3551,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>174</v>
       </c>
@@ -3508,16 +3566,28 @@
       <c r="D148" s="19" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E148" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F148" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>175</v>
       </c>
       <c r="C149" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E149" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F149" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>176</v>
       </c>
@@ -3527,8 +3597,14 @@
       <c r="D150" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E150" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F150" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>177</v>
       </c>
@@ -3538,8 +3614,17 @@
       <c r="D151" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E151" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G151" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>178</v>
       </c>
@@ -3547,7 +3632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>179</v>
       </c>
@@ -3555,12 +3640,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>184</v>
       </c>
@@ -3577,7 +3662,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>185</v>
       </c>
@@ -3591,7 +3676,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>186</v>
       </c>
@@ -3608,7 +3693,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>187</v>
       </c>
@@ -3622,7 +3707,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="160" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>188</v>
       </c>

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8E873-55F0-412F-8181-75E2BE8C1D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAAF1E7-3820-4E34-8445-9D042FFF0193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="459">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -1346,9 +1346,6 @@
     <t>&lt;DOT_ARR&gt;? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; ? Null</t>
   </si>
   <si>
-    <t>dot ? = ? ;  ? [ ? ( ? Null</t>
-  </si>
-  <si>
     <t>dot  ? ;</t>
   </si>
   <si>
@@ -1438,13 +1435,32 @@
     <t>= ? ; ? state ? default ? } else ? Till 
 ? def ?  Static ? const ? dt ? id  ? }
  ? Begin?  Class ? Abstract ?  $</t>
+  </si>
+  <si>
+    <t>&lt;FOR_ARG&gt; ? &lt;DOT_ID5&gt;</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t>rop ? and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t>pm ? rop ? and ? or ? ]  ? ) ? , ? }  
+? :  ? ;</t>
+  </si>
+  <si>
+    <t>mdm ? pm ? rop ? and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1500,15 +1516,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,11 +1548,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1606,16 +1610,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1676,9 +1679,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1695,13 +1695,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1716,12 +1709,11 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
@@ -2003,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="B165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,13 +2130,13 @@
         <v>334</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10" t="s">
         <v>442</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -2166,10 +2158,10 @@
         <v>333</v>
       </c>
       <c r="E13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -2351,7 +2343,7 @@
       <c r="E33" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>376</v>
       </c>
     </row>
@@ -2675,7 +2667,7 @@
         <v>295</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F67" t="s">
         <v>294</v>
@@ -2713,10 +2705,10 @@
       <c r="E71" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="G71" s="31" t="s">
+      <c r="G71" s="30" t="s">
         <v>415</v>
       </c>
       <c r="I71" s="8"/>
@@ -2729,13 +2721,13 @@
         <v>29</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="27" t="s">
+      <c r="E72" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="F72" s="37" t="s">
+      <c r="F72" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="G72" s="36" t="s">
+      <c r="G72" s="32" t="s">
         <v>423</v>
       </c>
     </row>
@@ -2750,7 +2742,7 @@
       <c r="E73" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="F73" s="38" t="s">
+      <c r="F73" s="34" t="s">
         <v>423</v>
       </c>
     </row>
@@ -2832,12 +2824,12 @@
         <v>350</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="G81" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="G81" s="30" t="s">
         <v>414</v>
       </c>
     </row>
@@ -2852,10 +2844,10 @@
         <v>352</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
@@ -2867,10 +2859,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="F83" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -2906,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -2942,10 +2934,10 @@
         <v>307</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F90" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
@@ -3219,10 +3211,10 @@
         <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F114" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -3236,10 +3228,10 @@
         <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G115" s="8"/>
     </row>
@@ -3252,10 +3244,10 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -3267,10 +3259,10 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -3284,10 +3276,10 @@
         <v>318</v>
       </c>
       <c r="E118" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
@@ -3317,16 +3309,16 @@
         <v>424</v>
       </c>
       <c r="D121" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="F121" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="F121" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="G121" s="36" t="s">
         <v>451</v>
-      </c>
-      <c r="G121" s="40" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="75" x14ac:dyDescent="0.25">
@@ -3337,13 +3329,13 @@
         <v>339</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="75" x14ac:dyDescent="0.25">
@@ -3354,13 +3346,13 @@
         <v>148</v>
       </c>
       <c r="D123" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="G123" s="20" t="s">
-        <v>453</v>
+        <v>432</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -3485,11 +3477,11 @@
       <c r="D140" t="s">
         <v>330</v>
       </c>
-      <c r="E140" s="27" t="s">
+      <c r="E140" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="F140" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="141" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -3503,7 +3495,7 @@
         <v>165</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
@@ -3531,7 +3523,7 @@
         <v>329</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
@@ -3615,7 +3607,7 @@
         <v>310</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F151" s="17" t="s">
         <v>175</v>
@@ -3672,7 +3664,7 @@
       <c r="E157" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="F157" s="31" t="s">
+      <c r="F157" s="30" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3700,11 +3692,14 @@
       <c r="C159" t="s">
         <v>198</v>
       </c>
-      <c r="E159" s="33" t="s">
+      <c r="E159" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="F159" s="34" t="s">
+      <c r="F159" s="26" t="s">
         <v>396</v>
+      </c>
+      <c r="G159" s="24" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="160" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -3717,10 +3712,10 @@
       <c r="D160" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E160" s="29" t="s">
+      <c r="E160" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="F160" s="28" t="s">
+      <c r="F160" s="27" t="s">
         <v>409</v>
       </c>
     </row>
@@ -3731,11 +3726,14 @@
       <c r="C161" t="s">
         <v>199</v>
       </c>
-      <c r="E161" s="33" t="s">
+      <c r="E161" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="F161" s="34" t="s">
+      <c r="F161" s="26" t="s">
         <v>397</v>
+      </c>
+      <c r="G161" s="24" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -3751,7 +3749,7 @@
       <c r="E162" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F162" s="28" t="s">
+      <c r="F162" s="27" t="s">
         <v>410</v>
       </c>
     </row>
@@ -3762,11 +3760,14 @@
       <c r="C163" t="s">
         <v>200</v>
       </c>
-      <c r="E163" s="35" t="s">
+      <c r="E163" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="F163" s="34" t="s">
+      <c r="F163" s="26" t="s">
         <v>398</v>
+      </c>
+      <c r="G163" s="24" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="164" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -3782,7 +3783,7 @@
       <c r="E164" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="F164" s="28" t="s">
+      <c r="F164" s="27" t="s">
         <v>411</v>
       </c>
     </row>
@@ -3793,11 +3794,14 @@
       <c r="C165" t="s">
         <v>202</v>
       </c>
-      <c r="E165" s="35" t="s">
+      <c r="E165" s="26" t="s">
         <v>394</v>
       </c>
       <c r="F165" s="26" t="s">
         <v>399</v>
+      </c>
+      <c r="G165" s="30" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -3813,7 +3817,7 @@
       <c r="E166" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="F166" s="28" t="s">
+      <c r="F166" s="27" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3824,11 +3828,14 @@
       <c r="C167" t="s">
         <v>203</v>
       </c>
-      <c r="E167" s="35" t="s">
+      <c r="E167" s="26" t="s">
         <v>395</v>
       </c>
       <c r="F167" s="26" t="s">
         <v>400</v>
+      </c>
+      <c r="G167" s="30" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="168" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -3844,7 +3851,7 @@
       <c r="E168" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="F168" s="28" t="s">
+      <c r="F168" s="27" t="s">
         <v>413</v>
       </c>
     </row>
@@ -3858,7 +3865,7 @@
       <c r="D169" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E169" s="30" t="s">
+      <c r="E169" s="29" t="s">
         <v>195</v>
       </c>
       <c r="F169" s="8" t="s">
@@ -3911,7 +3918,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>212</v>
       </c>
@@ -3919,7 +3926,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>300</v>
       </c>
@@ -3927,40 +3934,50 @@
         <v>347</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>215</v>
       </c>
       <c r="C182" t="s">
         <v>217</v>
       </c>
-      <c r="E182" s="17"/>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E182" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>216</v>
       </c>
       <c r="C183" t="s">
         <v>218</v>
       </c>
-      <c r="E183" s="17"/>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E183" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>221</v>
       </c>
@@ -3968,7 +3985,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>222</v>
       </c>
@@ -3979,7 +3996,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>223</v>
       </c>
@@ -3987,7 +4004,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>360</v>
       </c>
@@ -3998,17 +4015,17 @@
         <v>369</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>230</v>
       </c>
@@ -4016,7 +4033,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>231</v>
       </c>
@@ -4027,12 +4044,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>234</v>
       </c>
@@ -4040,7 +4057,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>235</v>
       </c>
@@ -4048,12 +4065,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>239</v>
       </c>
@@ -4061,15 +4078,18 @@
         <v>243</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>240</v>
       </c>
       <c r="C203" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>241</v>
       </c>
@@ -4079,29 +4099,41 @@
       <c r="D204" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="F204" s="24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>242</v>
       </c>
       <c r="C205" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F205" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>248</v>
       </c>
@@ -4109,7 +4141,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>249</v>
       </c>
@@ -4117,7 +4149,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>250</v>
       </c>
@@ -4125,12 +4157,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>254</v>
       </c>
@@ -4138,12 +4170,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>257</v>
       </c>
@@ -4151,20 +4183,26 @@
         <v>258</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>260</v>
       </c>
       <c r="C221" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>362</v>
       </c>
@@ -4174,8 +4212,14 @@
       <c r="D222" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F222" s="24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>261</v>
       </c>
@@ -4183,7 +4227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>262</v>
       </c>
@@ -4198,7 +4242,7 @@
       <c r="C225" t="s">
         <v>267</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="17" t="s">
         <v>365</v>
       </c>
       <c r="F225" s="24" t="s">

--- a/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
+++ b/New Language/Syntax Analyze Phase/FirstFollowSet/firstFollowSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\Syntax Analyze Phase\FirstFollowSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAAF1E7-3820-4E34-8445-9D042FFF0193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7E4B07-722A-48EB-9CE1-7E295BA91FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1995,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G168" sqref="G168"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2047,7 @@
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" t="s">
         <v>357</v>
       </c>
     </row>
